--- a/manuscript/supplemental_materials/supplemental_tables.xlsx
+++ b/manuscript/supplemental_materials/supplemental_tables.xlsx
@@ -25,6 +25,7 @@
     <sheet name="SupplementaryTable15" sheetId="16" r:id="rId16"/>
     <sheet name="SupplementaryTable16" sheetId="17" r:id="rId17"/>
     <sheet name="SupplementaryTable17" sheetId="18" r:id="rId18"/>
+    <sheet name="SupplementaryTable18" sheetId="19" r:id="rId19"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -368,7 +369,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -587,6 +588,18 @@
       <c r="B18" t="inlineStr">
         <is>
           <t>EpiSLI whole genome sequencing coverage statistics</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>SupplementaryTable18</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Enrichment of human-specific and conserved cCREs in HAQERs</t>
         </is>
       </c>
     </row>
@@ -6733,7 +6746,7 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J97"/>
+  <dimension ref="A1:J85"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7536,19 +7549,19 @@
         <v>882</v>
       </c>
       <c r="F20">
-        <v>145722</v>
+        <v>148413</v>
       </c>
       <c r="G20">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H20">
-        <v>23.751848</v>
+        <v>23.721222</v>
       </c>
       <c r="I20">
-        <v>1.810385</v>
+        <v>1.644097</v>
       </c>
       <c r="J20">
-        <v>4.471453E-05</v>
+        <v>0.001002433</v>
       </c>
     </row>
     <row r="21">
@@ -7576,19 +7589,19 @@
         <v>2561</v>
       </c>
       <c r="F21">
-        <v>145722</v>
+        <v>148413</v>
       </c>
       <c r="G21">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="H21">
-        <v>26.70489</v>
+        <v>26.929483</v>
       </c>
       <c r="I21">
-        <v>0.674034</v>
+        <v>0.891217</v>
       </c>
       <c r="J21">
-        <v>0.9637713</v>
+        <v>0.747436</v>
       </c>
     </row>
     <row r="22">
@@ -7616,19 +7629,19 @@
         <v>1107</v>
       </c>
       <c r="F22">
-        <v>145722</v>
+        <v>148413</v>
       </c>
       <c r="G22">
         <v>19</v>
       </c>
       <c r="H22">
-        <v>32.052819</v>
+        <v>32.020362</v>
       </c>
       <c r="I22">
-        <v>0.592772</v>
+        <v>0.593372</v>
       </c>
       <c r="J22">
-        <v>0.9925032</v>
+        <v>0.9924068</v>
       </c>
     </row>
     <row r="23">
@@ -7639,7 +7652,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>day52.Astrocytes</t>
+          <t>day52.Dopaminergic</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -7656,19 +7669,19 @@
         <v>882</v>
       </c>
       <c r="F23">
-        <v>148413</v>
+        <v>237874</v>
       </c>
       <c r="G23">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="H23">
-        <v>23.721222</v>
+        <v>36.163578</v>
       </c>
       <c r="I23">
-        <v>1.644097</v>
+        <v>1.465563</v>
       </c>
       <c r="J23">
-        <v>0.001002433</v>
+        <v>0.002684886</v>
       </c>
     </row>
     <row r="24">
@@ -7679,7 +7692,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>day52.Astrocytes</t>
+          <t>day52.Dopaminergic</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -7696,19 +7709,19 @@
         <v>2561</v>
       </c>
       <c r="F24">
-        <v>148413</v>
+        <v>237874</v>
       </c>
       <c r="G24">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H24">
-        <v>26.929483</v>
+        <v>42.255646</v>
       </c>
       <c r="I24">
-        <v>0.891217</v>
+        <v>0.615302</v>
       </c>
       <c r="J24">
-        <v>0.747436</v>
+        <v>0.9954449</v>
       </c>
     </row>
     <row r="25">
@@ -7719,7 +7732,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>day52.Astrocytes</t>
+          <t>day52.Dopaminergic</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -7736,19 +7749,19 @@
         <v>1107</v>
       </c>
       <c r="F25">
-        <v>148413</v>
+        <v>237874</v>
       </c>
       <c r="G25">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="H25">
-        <v>32.020362</v>
+        <v>49.05165</v>
       </c>
       <c r="I25">
-        <v>0.593372</v>
+        <v>0.570827</v>
       </c>
       <c r="J25">
-        <v>0.9924068</v>
+        <v>0.9991851</v>
       </c>
     </row>
     <row r="26">
@@ -7759,7 +7772,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>day52.Dopaminergic</t>
+          <t>day52.Ependymal</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -7776,19 +7789,19 @@
         <v>882</v>
       </c>
       <c r="F26">
-        <v>152889</v>
+        <v>286890</v>
       </c>
       <c r="G26">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="H26">
-        <v>23.814634</v>
+        <v>43.178613</v>
       </c>
       <c r="I26">
-        <v>1.301721</v>
+        <v>1.505375</v>
       </c>
       <c r="J26">
-        <v>0.08162408</v>
+        <v>0.0004201523</v>
       </c>
     </row>
     <row r="27">
@@ -7799,7 +7812,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>day52.Dopaminergic</t>
+          <t>day52.Ependymal</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -7816,19 +7829,19 @@
         <v>2561</v>
       </c>
       <c r="F27">
-        <v>152889</v>
+        <v>286890</v>
       </c>
       <c r="G27">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="H27">
-        <v>27.31242</v>
+        <v>50.943177</v>
       </c>
       <c r="I27">
-        <v>0.622427</v>
+        <v>0.530002</v>
       </c>
       <c r="J27">
-        <v>0.9815325</v>
+        <v>0.9997416</v>
       </c>
     </row>
     <row r="28">
@@ -7839,7 +7852,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>day52.Dopaminergic</t>
+          <t>day52.Ependymal</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -7856,19 +7869,19 @@
         <v>1107</v>
       </c>
       <c r="F28">
-        <v>152889</v>
+        <v>286890</v>
       </c>
       <c r="G28">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="H28">
-        <v>32.227184</v>
+        <v>58.595909</v>
       </c>
       <c r="I28">
-        <v>0.744713</v>
+        <v>0.716774</v>
       </c>
       <c r="J28">
-        <v>0.9408885</v>
+        <v>0.9891805</v>
       </c>
     </row>
     <row r="29">
@@ -7879,7 +7892,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>day52.Dopaminergic</t>
+          <t>day52.Any (pseudobulk)</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -7896,19 +7909,19 @@
         <v>882</v>
       </c>
       <c r="F29">
-        <v>237874</v>
+        <v>335854</v>
       </c>
       <c r="G29">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="H29">
-        <v>36.163578</v>
+        <v>49.762732</v>
       </c>
       <c r="I29">
-        <v>1.465563</v>
+        <v>1.245912</v>
       </c>
       <c r="J29">
-        <v>0.002684886</v>
+        <v>0.04284417</v>
       </c>
     </row>
     <row r="30">
@@ -7919,7 +7932,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>day52.Dopaminergic</t>
+          <t>day52.Any (pseudobulk)</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -7936,19 +7949,19 @@
         <v>2561</v>
       </c>
       <c r="F30">
-        <v>237874</v>
+        <v>335854</v>
       </c>
       <c r="G30">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="H30">
-        <v>42.255646</v>
+        <v>59.363601</v>
       </c>
       <c r="I30">
-        <v>0.615302</v>
+        <v>0.589587</v>
       </c>
       <c r="J30">
-        <v>0.9954449</v>
+        <v>0.9994774</v>
       </c>
     </row>
     <row r="31">
@@ -7959,7 +7972,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>day52.Dopaminergic</t>
+          <t>day52.Any (pseudobulk)</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -7976,19 +7989,19 @@
         <v>1107</v>
       </c>
       <c r="F31">
-        <v>237874</v>
+        <v>335854</v>
       </c>
       <c r="G31">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="H31">
-        <v>49.05165</v>
+        <v>67.64460800000001</v>
       </c>
       <c r="I31">
-        <v>0.570827</v>
+        <v>0.561759</v>
       </c>
       <c r="J31">
-        <v>0.9991851</v>
+        <v>0.9999232</v>
       </c>
     </row>
     <row r="32">
@@ -7999,7 +8012,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>day52.Ependymal</t>
+          <t>day52.Serotinergic</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -8016,19 +8029,19 @@
         <v>882</v>
       </c>
       <c r="F32">
-        <v>243382</v>
+        <v>293507</v>
       </c>
       <c r="G32">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="H32">
-        <v>37.103541</v>
+        <v>44.244884</v>
       </c>
       <c r="I32">
-        <v>1.293677</v>
+        <v>1.152676</v>
       </c>
       <c r="J32">
-        <v>0.04004188</v>
+        <v>0.1664049</v>
       </c>
     </row>
     <row r="33">
@@ -8039,7 +8052,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>day52.Ependymal</t>
+          <t>day52.Serotinergic</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -8056,19 +8069,19 @@
         <v>2561</v>
       </c>
       <c r="F33">
-        <v>243382</v>
+        <v>293507</v>
       </c>
       <c r="G33">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="H33">
-        <v>43.401861</v>
+        <v>52.002139</v>
       </c>
       <c r="I33">
-        <v>0.506891</v>
+        <v>0.7115089999999999</v>
       </c>
       <c r="J33">
-        <v>0.9996165</v>
+        <v>0.9853689</v>
       </c>
     </row>
     <row r="34">
@@ -8079,7 +8092,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>day52.Ependymal</t>
+          <t>day52.Serotinergic</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -8096,19 +8109,19 @@
         <v>1107</v>
       </c>
       <c r="F34">
-        <v>243382</v>
+        <v>293507</v>
       </c>
       <c r="G34">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H34">
-        <v>50.318975</v>
+        <v>60.037145</v>
       </c>
       <c r="I34">
-        <v>0.715436</v>
+        <v>0.516347</v>
       </c>
       <c r="J34">
-        <v>0.9838261</v>
+        <v>0.9999562</v>
       </c>
     </row>
     <row r="35">
@@ -8119,12 +8132,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>day52.Ependymal</t>
+          <t>Astro</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>developing_iPSC_neurons.Jerber-NatGen2021</t>
+          <t>adult_brain_post_mortem.Emani-Science2024</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -8133,22 +8146,22 @@
         </is>
       </c>
       <c r="E35">
-        <v>882</v>
+        <v>892</v>
       </c>
       <c r="F35">
-        <v>286890</v>
+        <v>51250</v>
       </c>
       <c r="G35">
-        <v>65</v>
+        <v>6</v>
       </c>
       <c r="H35">
-        <v>43.178613</v>
+        <v>7.515557</v>
       </c>
       <c r="I35">
-        <v>1.505375</v>
+        <v>0.7983440000000001</v>
       </c>
       <c r="J35">
-        <v>0.0004201523</v>
+        <v>0.7711756</v>
       </c>
     </row>
     <row r="36">
@@ -8159,12 +8172,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>day52.Ependymal</t>
+          <t>Astro</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>developing_iPSC_neurons.Jerber-NatGen2021</t>
+          <t>adult_brain_post_mortem.Emani-Science2024</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -8173,22 +8186,22 @@
         </is>
       </c>
       <c r="E36">
-        <v>2561</v>
+        <v>2645</v>
       </c>
       <c r="F36">
-        <v>286890</v>
+        <v>51250</v>
       </c>
       <c r="G36">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="H36">
-        <v>50.943177</v>
+        <v>9.097289</v>
       </c>
       <c r="I36">
-        <v>0.530002</v>
+        <v>0.329769</v>
       </c>
       <c r="J36">
-        <v>0.9997416</v>
+        <v>0.9861773</v>
       </c>
     </row>
     <row r="37">
@@ -8199,12 +8212,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>day52.Ependymal</t>
+          <t>Astro</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>developing_iPSC_neurons.Jerber-NatGen2021</t>
+          <t>adult_brain_post_mortem.Emani-Science2024</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -8213,22 +8226,22 @@
         </is>
       </c>
       <c r="E37">
-        <v>1107</v>
+        <v>1388</v>
       </c>
       <c r="F37">
-        <v>286890</v>
+        <v>51250</v>
       </c>
       <c r="G37">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="H37">
-        <v>58.595909</v>
+        <v>12.648678</v>
       </c>
       <c r="I37">
-        <v>0.716774</v>
+        <v>0.237179</v>
       </c>
       <c r="J37">
-        <v>0.9891805</v>
+        <v>0.9979875</v>
       </c>
     </row>
     <row r="38">
@@ -8239,12 +8252,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>day52.Any (pseudobulk)</t>
+          <t>Chandelier__Pvalb</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>developing_iPSC_neurons.Jerber-NatGen2021</t>
+          <t>adult_brain_post_mortem.Emani-Science2024</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -8253,22 +8266,22 @@
         </is>
       </c>
       <c r="E38">
-        <v>882</v>
+        <v>892</v>
       </c>
       <c r="F38">
-        <v>335854</v>
+        <v>92332</v>
       </c>
       <c r="G38">
-        <v>62</v>
+        <v>8</v>
       </c>
       <c r="H38">
-        <v>49.762732</v>
+        <v>13.614356</v>
       </c>
       <c r="I38">
-        <v>1.245912</v>
+        <v>0.587615</v>
       </c>
       <c r="J38">
-        <v>0.04284417</v>
+        <v>0.9531274</v>
       </c>
     </row>
     <row r="39">
@@ -8279,12 +8292,12 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>day52.Any (pseudobulk)</t>
+          <t>Chandelier__Pvalb</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>developing_iPSC_neurons.Jerber-NatGen2021</t>
+          <t>adult_brain_post_mortem.Emani-Science2024</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -8293,22 +8306,22 @@
         </is>
       </c>
       <c r="E39">
-        <v>2561</v>
+        <v>2645</v>
       </c>
       <c r="F39">
-        <v>335854</v>
+        <v>92332</v>
       </c>
       <c r="G39">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="H39">
-        <v>59.363601</v>
+        <v>16.490097</v>
       </c>
       <c r="I39">
-        <v>0.589587</v>
+        <v>0.848994</v>
       </c>
       <c r="J39">
-        <v>0.9994774</v>
+        <v>0.7707103</v>
       </c>
     </row>
     <row r="40">
@@ -8319,12 +8332,12 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>day52.Any (pseudobulk)</t>
+          <t>Chandelier__Pvalb</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>developing_iPSC_neurons.Jerber-NatGen2021</t>
+          <t>adult_brain_post_mortem.Emani-Science2024</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -8333,22 +8346,22 @@
         </is>
       </c>
       <c r="E40">
-        <v>1107</v>
+        <v>1388</v>
       </c>
       <c r="F40">
-        <v>335854</v>
+        <v>92332</v>
       </c>
       <c r="G40">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="H40">
-        <v>67.64460800000001</v>
+        <v>22.941119</v>
       </c>
       <c r="I40">
-        <v>0.561759</v>
+        <v>0.435899</v>
       </c>
       <c r="J40">
-        <v>0.9999232</v>
+        <v>0.9977085</v>
       </c>
     </row>
     <row r="41">
@@ -8359,12 +8372,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>day52.Serotinergic</t>
+          <t>L2-3 IT</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>developing_iPSC_neurons.Jerber-NatGen2021</t>
+          <t>adult_brain_post_mortem.Emani-Science2024</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -8373,22 +8386,22 @@
         </is>
       </c>
       <c r="E41">
-        <v>882</v>
+        <v>892</v>
       </c>
       <c r="F41">
-        <v>259858</v>
+        <v>265774</v>
       </c>
       <c r="G41">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="H41">
-        <v>39.557432</v>
+        <v>38.835863</v>
       </c>
       <c r="I41">
-        <v>1.440943</v>
+        <v>0.952728</v>
       </c>
       <c r="J41">
-        <v>0.00283238</v>
+        <v>0.6495971</v>
       </c>
     </row>
     <row r="42">
@@ -8399,12 +8412,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>day52.Serotinergic</t>
+          <t>L2-3 IT</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>developing_iPSC_neurons.Jerber-NatGen2021</t>
+          <t>adult_brain_post_mortem.Emani-Science2024</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -8413,22 +8426,22 @@
         </is>
       </c>
       <c r="E42">
-        <v>2561</v>
+        <v>2645</v>
       </c>
       <c r="F42">
-        <v>259858</v>
+        <v>265774</v>
       </c>
       <c r="G42">
         <v>28</v>
       </c>
       <c r="H42">
-        <v>46.244278</v>
+        <v>47.320683</v>
       </c>
       <c r="I42">
-        <v>0.60548</v>
+        <v>0.591707</v>
       </c>
       <c r="J42">
-        <v>0.9973756</v>
+        <v>0.9982361</v>
       </c>
     </row>
     <row r="43">
@@ -8439,12 +8452,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>day52.Serotinergic</t>
+          <t>L2-3 IT</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>developing_iPSC_neurons.Jerber-NatGen2021</t>
+          <t>adult_brain_post_mortem.Emani-Science2024</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -8453,22 +8466,22 @@
         </is>
       </c>
       <c r="E43">
-        <v>1107</v>
+        <v>1388</v>
       </c>
       <c r="F43">
-        <v>259858</v>
+        <v>265774</v>
       </c>
       <c r="G43">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H43">
-        <v>53.650117</v>
+        <v>65.451874</v>
       </c>
       <c r="I43">
-        <v>0.484621</v>
+        <v>0.443074</v>
       </c>
       <c r="J43">
-        <v>0.9999598</v>
+        <v>0.9999986</v>
       </c>
     </row>
     <row r="44">
@@ -8479,12 +8492,12 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>day52.Serotinergic</t>
+          <t>L4 IT</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>developing_iPSC_neurons.Jerber-NatGen2021</t>
+          <t>adult_brain_post_mortem.Emani-Science2024</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -8493,22 +8506,22 @@
         </is>
       </c>
       <c r="E44">
-        <v>882</v>
+        <v>892</v>
       </c>
       <c r="F44">
-        <v>293507</v>
+        <v>112090</v>
       </c>
       <c r="G44">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="H44">
-        <v>44.244884</v>
+        <v>16.487108</v>
       </c>
       <c r="I44">
-        <v>1.152676</v>
+        <v>0.727841</v>
       </c>
       <c r="J44">
-        <v>0.1664049</v>
+        <v>0.8931972</v>
       </c>
     </row>
     <row r="45">
@@ -8519,12 +8532,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>day52.Serotinergic</t>
+          <t>L4 IT</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>developing_iPSC_neurons.Jerber-NatGen2021</t>
+          <t>adult_brain_post_mortem.Emani-Science2024</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -8533,22 +8546,22 @@
         </is>
       </c>
       <c r="E45">
-        <v>2561</v>
+        <v>2645</v>
       </c>
       <c r="F45">
-        <v>293507</v>
+        <v>112090</v>
       </c>
       <c r="G45">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="H45">
-        <v>52.002139</v>
+        <v>19.932238</v>
       </c>
       <c r="I45">
-        <v>0.7115089999999999</v>
+        <v>0.80272</v>
       </c>
       <c r="J45">
-        <v>0.9853689</v>
+        <v>0.8412754</v>
       </c>
     </row>
     <row r="46">
@@ -8559,12 +8572,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>day52.Serotinergic</t>
+          <t>L4 IT</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>developing_iPSC_neurons.Jerber-NatGen2021</t>
+          <t>adult_brain_post_mortem.Emani-Science2024</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -8573,22 +8586,22 @@
         </is>
       </c>
       <c r="E46">
-        <v>1107</v>
+        <v>1388</v>
       </c>
       <c r="F46">
-        <v>293507</v>
+        <v>112090</v>
       </c>
       <c r="G46">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="H46">
-        <v>60.037145</v>
+        <v>27.780677</v>
       </c>
       <c r="I46">
-        <v>0.516347</v>
+        <v>0.431955</v>
       </c>
       <c r="J46">
-        <v>0.9999562</v>
+        <v>0.9991111</v>
       </c>
     </row>
     <row r="47">
@@ -8599,7 +8612,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Astro</t>
+          <t>L5-6 NP</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -8616,19 +8629,19 @@
         <v>892</v>
       </c>
       <c r="F47">
-        <v>51250</v>
+        <v>1120</v>
       </c>
       <c r="G47">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H47">
-        <v>7.515557</v>
+        <v>0.16539</v>
       </c>
       <c r="I47">
-        <v>0.7983440000000001</v>
+        <v>0</v>
       </c>
       <c r="J47">
-        <v>0.7711756</v>
+        <v>1.022611</v>
       </c>
     </row>
     <row r="48">
@@ -8639,7 +8652,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Astro</t>
+          <t>L5-6 NP</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -8656,19 +8669,19 @@
         <v>2645</v>
       </c>
       <c r="F48">
-        <v>51250</v>
+        <v>1120</v>
       </c>
       <c r="G48">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H48">
-        <v>9.097289</v>
+        <v>0.198836</v>
       </c>
       <c r="I48">
-        <v>0.329769</v>
+        <v>0</v>
       </c>
       <c r="J48">
-        <v>0.9861773</v>
+        <v>0.98838</v>
       </c>
     </row>
     <row r="49">
@@ -8679,7 +8692,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Astro</t>
+          <t>L5-6 NP</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -8696,19 +8709,19 @@
         <v>1388</v>
       </c>
       <c r="F49">
-        <v>51250</v>
+        <v>1120</v>
       </c>
       <c r="G49">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H49">
-        <v>12.648678</v>
+        <v>0.277795</v>
       </c>
       <c r="I49">
-        <v>0.237179</v>
+        <v>0</v>
       </c>
       <c r="J49">
-        <v>0.9979875</v>
+        <v>0.958444</v>
       </c>
     </row>
     <row r="50">
@@ -8719,7 +8732,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Chandelier__Pvalb</t>
+          <t>L5 IT</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -8736,19 +8749,19 @@
         <v>892</v>
       </c>
       <c r="F50">
-        <v>92332</v>
+        <v>149371</v>
       </c>
       <c r="G50">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="H50">
-        <v>13.614356</v>
+        <v>21.75127</v>
       </c>
       <c r="I50">
-        <v>0.587615</v>
+        <v>1.149358</v>
       </c>
       <c r="J50">
-        <v>0.9531274</v>
+        <v>0.274805</v>
       </c>
     </row>
     <row r="51">
@@ -8759,7 +8772,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Chandelier__Pvalb</t>
+          <t>L5 IT</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -8776,19 +8789,19 @@
         <v>2645</v>
       </c>
       <c r="F51">
-        <v>92332</v>
+        <v>149371</v>
       </c>
       <c r="G51">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H51">
-        <v>16.490097</v>
+        <v>26.445884</v>
       </c>
       <c r="I51">
-        <v>0.848994</v>
+        <v>0.680635</v>
       </c>
       <c r="J51">
-        <v>0.7707103</v>
+        <v>0.9602531</v>
       </c>
     </row>
     <row r="52">
@@ -8799,7 +8812,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Chandelier__Pvalb</t>
+          <t>L5 IT</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -8816,19 +8829,19 @@
         <v>1388</v>
       </c>
       <c r="F52">
-        <v>92332</v>
+        <v>149371</v>
       </c>
       <c r="G52">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H52">
-        <v>22.941119</v>
+        <v>36.646477</v>
       </c>
       <c r="I52">
-        <v>0.435899</v>
+        <v>0.382029</v>
       </c>
       <c r="J52">
-        <v>0.9977085</v>
+        <v>0.9999477</v>
       </c>
     </row>
     <row r="53">
@@ -8839,7 +8852,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>L2</t>
+          <t>L6 CT</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -8856,19 +8869,19 @@
         <v>892</v>
       </c>
       <c r="F53">
-        <v>265774</v>
+        <v>15368</v>
       </c>
       <c r="G53">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="H53">
-        <v>38.835863</v>
+        <v>2.161757</v>
       </c>
       <c r="I53">
-        <v>0.952728</v>
+        <v>0</v>
       </c>
       <c r="J53">
-        <v>0.6495971</v>
+        <v>0.9677504</v>
       </c>
     </row>
     <row r="54">
@@ -8879,7 +8892,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>L2</t>
+          <t>L6 CT</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -8896,19 +8909,19 @@
         <v>2645</v>
       </c>
       <c r="F54">
-        <v>265774</v>
+        <v>15368</v>
       </c>
       <c r="G54">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="H54">
-        <v>47.320683</v>
+        <v>2.660615</v>
       </c>
       <c r="I54">
-        <v>0.591707</v>
+        <v>1.879265</v>
       </c>
       <c r="J54">
-        <v>0.9982361</v>
+        <v>0.1257704</v>
       </c>
     </row>
     <row r="55">
@@ -8919,7 +8932,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>L2</t>
+          <t>L6 CT</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -8936,19 +8949,19 @@
         <v>1388</v>
       </c>
       <c r="F55">
-        <v>265774</v>
+        <v>15368</v>
       </c>
       <c r="G55">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="H55">
-        <v>65.451874</v>
+        <v>3.629888</v>
       </c>
       <c r="I55">
-        <v>0.443074</v>
+        <v>0</v>
       </c>
       <c r="J55">
-        <v>0.9999986</v>
+        <v>0.9859472</v>
       </c>
     </row>
     <row r="56">
@@ -8959,7 +8972,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>L4</t>
+          <t>L6 IT</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -8976,19 +8989,19 @@
         <v>892</v>
       </c>
       <c r="F56">
-        <v>112090</v>
+        <v>130690</v>
       </c>
       <c r="G56">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="H56">
-        <v>16.487108</v>
+        <v>19.156598</v>
       </c>
       <c r="I56">
-        <v>0.727841</v>
+        <v>1.148429</v>
       </c>
       <c r="J56">
-        <v>0.8931972</v>
+        <v>0.2936164</v>
       </c>
     </row>
     <row r="57">
@@ -8999,7 +9012,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>L4</t>
+          <t>L6 IT</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -9016,19 +9029,19 @@
         <v>2645</v>
       </c>
       <c r="F57">
-        <v>112090</v>
+        <v>130690</v>
       </c>
       <c r="G57">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="H57">
-        <v>19.932238</v>
+        <v>23.221063</v>
       </c>
       <c r="I57">
-        <v>0.80272</v>
+        <v>0.904351</v>
       </c>
       <c r="J57">
-        <v>0.8412754</v>
+        <v>0.7152929</v>
       </c>
     </row>
     <row r="58">
@@ -9039,7 +9052,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>L4</t>
+          <t>L6 IT</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -9056,19 +9069,19 @@
         <v>1388</v>
       </c>
       <c r="F58">
-        <v>112090</v>
+        <v>130690</v>
       </c>
       <c r="G58">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H58">
-        <v>27.780677</v>
+        <v>32.278221</v>
       </c>
       <c r="I58">
-        <v>0.431955</v>
+        <v>0.340787</v>
       </c>
       <c r="J58">
-        <v>0.9991111</v>
+        <v>0.9999486</v>
       </c>
     </row>
     <row r="59">
@@ -9079,7 +9092,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>L5</t>
+          <t>L6b</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -9096,19 +9109,19 @@
         <v>892</v>
       </c>
       <c r="F59">
-        <v>1120</v>
+        <v>4580</v>
       </c>
       <c r="G59">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H59">
-        <v>0.16539</v>
+        <v>0.728955</v>
       </c>
       <c r="I59">
-        <v>0</v>
+        <v>2.743652</v>
       </c>
       <c r="J59">
-        <v>1.022611</v>
+        <v>0.1680501</v>
       </c>
     </row>
     <row r="60">
@@ -9119,7 +9132,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>L5</t>
+          <t>L6b</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -9136,19 +9149,19 @@
         <v>2645</v>
       </c>
       <c r="F60">
-        <v>1120</v>
+        <v>4580</v>
       </c>
       <c r="G60">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H60">
-        <v>0.198836</v>
+        <v>0.846655</v>
       </c>
       <c r="I60">
-        <v>0</v>
+        <v>3.543354</v>
       </c>
       <c r="J60">
-        <v>0.98838</v>
+        <v>0.02925011</v>
       </c>
     </row>
     <row r="61">
@@ -9159,7 +9172,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>L5</t>
+          <t>L6b</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -9176,19 +9189,19 @@
         <v>1388</v>
       </c>
       <c r="F61">
-        <v>1120</v>
+        <v>4580</v>
       </c>
       <c r="G61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H61">
-        <v>0.277795</v>
+        <v>1.227714</v>
       </c>
       <c r="I61">
-        <v>0</v>
+        <v>0.814522</v>
       </c>
       <c r="J61">
-        <v>0.958444</v>
+        <v>0.7520877</v>
       </c>
     </row>
     <row r="62">
@@ -9199,7 +9212,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>L5</t>
+          <t>Lamp5</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -9216,19 +9229,19 @@
         <v>892</v>
       </c>
       <c r="F62">
-        <v>149371</v>
+        <v>24806</v>
       </c>
       <c r="G62">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="H62">
-        <v>21.75127</v>
+        <v>3.585905</v>
       </c>
       <c r="I62">
-        <v>1.149358</v>
+        <v>0.27887</v>
       </c>
       <c r="J62">
-        <v>0.274805</v>
+        <v>0.9507856</v>
       </c>
     </row>
     <row r="63">
@@ -9239,7 +9252,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>L5</t>
+          <t>Lamp5</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -9256,19 +9269,19 @@
         <v>2645</v>
       </c>
       <c r="F63">
-        <v>149371</v>
+        <v>24806</v>
       </c>
       <c r="G63">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="H63">
-        <v>26.445884</v>
+        <v>4.367373</v>
       </c>
       <c r="I63">
-        <v>0.680635</v>
+        <v>0.915882</v>
       </c>
       <c r="J63">
-        <v>0.9602531</v>
+        <v>0.6625883</v>
       </c>
     </row>
     <row r="64">
@@ -9279,7 +9292,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>L5</t>
+          <t>Lamp5</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -9296,19 +9309,19 @@
         <v>1388</v>
       </c>
       <c r="F64">
-        <v>149371</v>
+        <v>24806</v>
       </c>
       <c r="G64">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="H64">
-        <v>36.646477</v>
+        <v>6.034555</v>
       </c>
       <c r="I64">
-        <v>0.382029</v>
+        <v>0.165712</v>
       </c>
       <c r="J64">
-        <v>0.9999477</v>
+        <v>0.9885074</v>
       </c>
     </row>
     <row r="65">
@@ -9319,7 +9332,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>L6</t>
+          <t>Lamp5 Lhx6</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -9336,19 +9349,19 @@
         <v>892</v>
       </c>
       <c r="F65">
-        <v>15368</v>
+        <v>139</v>
       </c>
       <c r="G65">
         <v>0</v>
       </c>
       <c r="H65">
-        <v>2.161757</v>
+        <v>0.028555</v>
       </c>
       <c r="I65">
         <v>0</v>
       </c>
       <c r="J65">
-        <v>0.9677504</v>
+        <v>2.327446</v>
       </c>
     </row>
     <row r="66">
@@ -9359,7 +9372,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>L6</t>
+          <t>Lamp5 Lhx6</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -9376,19 +9389,19 @@
         <v>2645</v>
       </c>
       <c r="F66">
-        <v>15368</v>
+        <v>139</v>
       </c>
       <c r="G66">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H66">
-        <v>2.660615</v>
+        <v>0.029243</v>
       </c>
       <c r="I66">
-        <v>1.879265</v>
+        <v>0</v>
       </c>
       <c r="J66">
-        <v>0.1257704</v>
+        <v>2.299061</v>
       </c>
     </row>
     <row r="67">
@@ -9399,7 +9412,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>L6</t>
+          <t>Lamp5 Lhx6</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -9416,19 +9429,19 @@
         <v>1388</v>
       </c>
       <c r="F67">
-        <v>15368</v>
+        <v>139</v>
       </c>
       <c r="G67">
         <v>0</v>
       </c>
       <c r="H67">
-        <v>3.629888</v>
+        <v>0.04823</v>
       </c>
       <c r="I67">
         <v>0</v>
       </c>
       <c r="J67">
-        <v>0.9859472</v>
+        <v>1.773469</v>
       </c>
     </row>
     <row r="68">
@@ -9439,7 +9452,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>L6</t>
+          <t>Micro PVM</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -9456,19 +9469,19 @@
         <v>892</v>
       </c>
       <c r="F68">
-        <v>130690</v>
+        <v>7221</v>
       </c>
       <c r="G68">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="H68">
-        <v>19.156598</v>
+        <v>0.794841</v>
       </c>
       <c r="I68">
-        <v>1.148429</v>
+        <v>0</v>
       </c>
       <c r="J68">
-        <v>0.2936164</v>
+        <v>0.9377818999999999</v>
       </c>
     </row>
     <row r="69">
@@ -9479,7 +9492,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>L6</t>
+          <t>Micro PVM</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -9496,19 +9509,19 @@
         <v>2645</v>
       </c>
       <c r="F69">
-        <v>130690</v>
+        <v>7221</v>
       </c>
       <c r="G69">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="H69">
-        <v>23.221063</v>
+        <v>1.081918</v>
       </c>
       <c r="I69">
-        <v>0.904351</v>
+        <v>0.924285</v>
       </c>
       <c r="J69">
-        <v>0.7152929</v>
+        <v>0.7200785</v>
       </c>
     </row>
     <row r="70">
@@ -9519,7 +9532,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>L6</t>
+          <t>Micro PVM</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -9536,19 +9549,19 @@
         <v>1388</v>
       </c>
       <c r="F70">
-        <v>130690</v>
+        <v>7221</v>
       </c>
       <c r="G70">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="H70">
-        <v>32.278221</v>
+        <v>1.324666</v>
       </c>
       <c r="I70">
-        <v>0.340787</v>
+        <v>0</v>
       </c>
       <c r="J70">
-        <v>0.9999486</v>
+        <v>0.9493561</v>
       </c>
     </row>
     <row r="71">
@@ -9559,7 +9572,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>L6b</t>
+          <t>Oligo</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -9576,19 +9589,19 @@
         <v>892</v>
       </c>
       <c r="F71">
-        <v>4580</v>
+        <v>80467</v>
       </c>
       <c r="G71">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H71">
-        <v>0.728955</v>
+        <v>12.087657</v>
       </c>
       <c r="I71">
-        <v>2.743652</v>
+        <v>0.496374</v>
       </c>
       <c r="J71">
-        <v>0.1680501</v>
+        <v>0.9722758</v>
       </c>
     </row>
     <row r="72">
@@ -9599,7 +9612,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>L6b</t>
+          <t>Oligo</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -9616,19 +9629,19 @@
         <v>2645</v>
       </c>
       <c r="F72">
-        <v>4580</v>
+        <v>80467</v>
       </c>
       <c r="G72">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="H72">
-        <v>0.846655</v>
+        <v>14.522933</v>
       </c>
       <c r="I72">
-        <v>3.543354</v>
+        <v>1.032849</v>
       </c>
       <c r="J72">
-        <v>0.02925011</v>
+        <v>0.5024162</v>
       </c>
     </row>
     <row r="73">
@@ -9639,7 +9652,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>L6b</t>
+          <t>Oligo</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -9656,19 +9669,19 @@
         <v>1388</v>
       </c>
       <c r="F73">
-        <v>4580</v>
+        <v>80467</v>
       </c>
       <c r="G73">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H73">
-        <v>1.227714</v>
+        <v>20.370702</v>
       </c>
       <c r="I73">
-        <v>0.814522</v>
+        <v>0.19636</v>
       </c>
       <c r="J73">
-        <v>0.7520877</v>
+        <v>0.9999195</v>
       </c>
     </row>
     <row r="74">
@@ -9679,7 +9692,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Lamp5</t>
+          <t>OPC</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -9696,19 +9709,19 @@
         <v>892</v>
       </c>
       <c r="F74">
-        <v>24806</v>
+        <v>30664</v>
       </c>
       <c r="G74">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H74">
-        <v>3.585905</v>
+        <v>4.471689</v>
       </c>
       <c r="I74">
-        <v>0.27887</v>
+        <v>0.670887</v>
       </c>
       <c r="J74">
-        <v>0.9507856</v>
+        <v>0.8273697</v>
       </c>
     </row>
     <row r="75">
@@ -9719,7 +9732,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Lamp5</t>
+          <t>OPC</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -9736,19 +9749,19 @@
         <v>2645</v>
       </c>
       <c r="F75">
-        <v>24806</v>
+        <v>30664</v>
       </c>
       <c r="G75">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H75">
-        <v>4.367373</v>
+        <v>5.443658</v>
       </c>
       <c r="I75">
-        <v>0.915882</v>
+        <v>1.1022</v>
       </c>
       <c r="J75">
-        <v>0.6625883</v>
+        <v>0.4902793</v>
       </c>
     </row>
     <row r="76">
@@ -9759,7 +9772,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Lamp5</t>
+          <t>OPC</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -9776,19 +9789,19 @@
         <v>1388</v>
       </c>
       <c r="F76">
-        <v>24806</v>
+        <v>30664</v>
       </c>
       <c r="G76">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H76">
-        <v>6.034555</v>
+        <v>7.528171</v>
       </c>
       <c r="I76">
-        <v>0.165712</v>
+        <v>0.265669</v>
       </c>
       <c r="J76">
-        <v>0.9885074</v>
+        <v>0.9866328</v>
       </c>
     </row>
     <row r="77">
@@ -9799,7 +9812,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Lamp5</t>
+          <t>PC</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -9816,19 +9829,19 @@
         <v>892</v>
       </c>
       <c r="F77">
-        <v>139</v>
+        <v>503</v>
       </c>
       <c r="G77">
         <v>0</v>
       </c>
       <c r="H77">
-        <v>0.028555</v>
+        <v>0.04428</v>
       </c>
       <c r="I77">
         <v>0</v>
       </c>
       <c r="J77">
-        <v>2.327446</v>
+        <v>1.854462</v>
       </c>
     </row>
     <row r="78">
@@ -9839,7 +9852,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Lamp5</t>
+          <t>PC</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -9856,19 +9869,19 @@
         <v>2645</v>
       </c>
       <c r="F78">
-        <v>139</v>
+        <v>503</v>
       </c>
       <c r="G78">
         <v>0</v>
       </c>
       <c r="H78">
-        <v>0.029243</v>
+        <v>0.054333</v>
       </c>
       <c r="I78">
         <v>0</v>
       </c>
       <c r="J78">
-        <v>2.299061</v>
+        <v>1.666117</v>
       </c>
     </row>
     <row r="79">
@@ -9879,7 +9892,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Lamp5</t>
+          <t>PC</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -9896,19 +9909,19 @@
         <v>1388</v>
       </c>
       <c r="F79">
-        <v>139</v>
+        <v>503</v>
       </c>
       <c r="G79">
         <v>0</v>
       </c>
       <c r="H79">
-        <v>0.04823</v>
+        <v>0.073852</v>
       </c>
       <c r="I79">
         <v>0</v>
       </c>
       <c r="J79">
-        <v>1.773469</v>
+        <v>1.419235</v>
       </c>
     </row>
     <row r="80">
@@ -9919,7 +9932,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Micro</t>
+          <t>Sst__Sst Chodl</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -9936,19 +9949,19 @@
         <v>892</v>
       </c>
       <c r="F80">
-        <v>7221</v>
+        <v>37045</v>
       </c>
       <c r="G80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H80">
-        <v>0.794841</v>
+        <v>5.417535</v>
       </c>
       <c r="I80">
-        <v>0</v>
+        <v>0.184586</v>
       </c>
       <c r="J80">
-        <v>0.9377818999999999</v>
+        <v>0.9836672</v>
       </c>
     </row>
     <row r="81">
@@ -9959,7 +9972,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Micro</t>
+          <t>Sst__Sst Chodl</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -9976,19 +9989,19 @@
         <v>2645</v>
       </c>
       <c r="F81">
-        <v>7221</v>
+        <v>37045</v>
       </c>
       <c r="G81">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H81">
-        <v>1.081918</v>
+        <v>6.595455</v>
       </c>
       <c r="I81">
-        <v>0.924285</v>
+        <v>1.212956</v>
       </c>
       <c r="J81">
-        <v>0.7200785</v>
+        <v>0.3612783</v>
       </c>
     </row>
     <row r="82">
@@ -9999,7 +10012,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Micro</t>
+          <t>Sst__Sst Chodl</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -10016,19 +10029,19 @@
         <v>1388</v>
       </c>
       <c r="F82">
-        <v>7221</v>
+        <v>37045</v>
       </c>
       <c r="G82">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H82">
-        <v>1.324666</v>
+        <v>9.118249</v>
       </c>
       <c r="I82">
-        <v>0</v>
+        <v>0.21934</v>
       </c>
       <c r="J82">
-        <v>0.9493561</v>
+        <v>0.9945033</v>
       </c>
     </row>
     <row r="83">
@@ -10039,7 +10052,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Oligo</t>
+          <t>Vip</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -10056,19 +10069,19 @@
         <v>892</v>
       </c>
       <c r="F83">
-        <v>80467</v>
+        <v>56960</v>
       </c>
       <c r="G83">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H83">
-        <v>12.087657</v>
+        <v>8.431732</v>
       </c>
       <c r="I83">
-        <v>0.496374</v>
+        <v>0.592998</v>
       </c>
       <c r="J83">
-        <v>0.9722758</v>
+        <v>0.9143054</v>
       </c>
     </row>
     <row r="84">
@@ -10079,7 +10092,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Oligo</t>
+          <t>Vip</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -10096,19 +10109,19 @@
         <v>2645</v>
       </c>
       <c r="F84">
-        <v>80467</v>
+        <v>56960</v>
       </c>
       <c r="G84">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="H84">
-        <v>14.522933</v>
+        <v>10.156824</v>
       </c>
       <c r="I84">
-        <v>1.032849</v>
+        <v>0.787648</v>
       </c>
       <c r="J84">
-        <v>0.5024162</v>
+        <v>0.7993182</v>
       </c>
     </row>
     <row r="85">
@@ -10119,7 +10132,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Oligo</t>
+          <t>Vip</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -10136,498 +10149,18 @@
         <v>1388</v>
       </c>
       <c r="F85">
-        <v>80467</v>
+        <v>56960</v>
       </c>
       <c r="G85">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H85">
-        <v>20.370702</v>
+        <v>14.211315</v>
       </c>
       <c r="I85">
-        <v>0.19636</v>
+        <v>0.422199</v>
       </c>
       <c r="J85">
-        <v>0.9999195</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>HAQER</t>
-        </is>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>OPC</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>adult_brain_post_mortem.Emani-Science2024</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>normalApproximate</t>
-        </is>
-      </c>
-      <c r="E86">
-        <v>892</v>
-      </c>
-      <c r="F86">
-        <v>30664</v>
-      </c>
-      <c r="G86">
-        <v>3</v>
-      </c>
-      <c r="H86">
-        <v>4.471689</v>
-      </c>
-      <c r="I86">
-        <v>0.670887</v>
-      </c>
-      <c r="J86">
-        <v>0.8273697</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>HAR</t>
-        </is>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>OPC</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>adult_brain_post_mortem.Emani-Science2024</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>normalApproximate</t>
-        </is>
-      </c>
-      <c r="E87">
-        <v>2645</v>
-      </c>
-      <c r="F87">
-        <v>30664</v>
-      </c>
-      <c r="G87">
-        <v>6</v>
-      </c>
-      <c r="H87">
-        <v>5.443658</v>
-      </c>
-      <c r="I87">
-        <v>1.1022</v>
-      </c>
-      <c r="J87">
-        <v>0.4902793</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>RAND</t>
-        </is>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>OPC</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>adult_brain_post_mortem.Emani-Science2024</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>normalApproximate</t>
-        </is>
-      </c>
-      <c r="E88">
-        <v>1388</v>
-      </c>
-      <c r="F88">
-        <v>30664</v>
-      </c>
-      <c r="G88">
-        <v>2</v>
-      </c>
-      <c r="H88">
-        <v>7.528171</v>
-      </c>
-      <c r="I88">
-        <v>0.265669</v>
-      </c>
-      <c r="J88">
-        <v>0.9866328</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>HAQER</t>
-        </is>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>PC</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>adult_brain_post_mortem.Emani-Science2024</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>normalApproximate</t>
-        </is>
-      </c>
-      <c r="E89">
-        <v>892</v>
-      </c>
-      <c r="F89">
-        <v>503</v>
-      </c>
-      <c r="G89">
-        <v>0</v>
-      </c>
-      <c r="H89">
-        <v>0.04428</v>
-      </c>
-      <c r="I89">
-        <v>0</v>
-      </c>
-      <c r="J89">
-        <v>1.854462</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>HAR</t>
-        </is>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>PC</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>adult_brain_post_mortem.Emani-Science2024</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>normalApproximate</t>
-        </is>
-      </c>
-      <c r="E90">
-        <v>2645</v>
-      </c>
-      <c r="F90">
-        <v>503</v>
-      </c>
-      <c r="G90">
-        <v>0</v>
-      </c>
-      <c r="H90">
-        <v>0.054333</v>
-      </c>
-      <c r="I90">
-        <v>0</v>
-      </c>
-      <c r="J90">
-        <v>1.666117</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>RAND</t>
-        </is>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>PC</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>adult_brain_post_mortem.Emani-Science2024</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>normalApproximate</t>
-        </is>
-      </c>
-      <c r="E91">
-        <v>1388</v>
-      </c>
-      <c r="F91">
-        <v>503</v>
-      </c>
-      <c r="G91">
-        <v>0</v>
-      </c>
-      <c r="H91">
-        <v>0.073852</v>
-      </c>
-      <c r="I91">
-        <v>0</v>
-      </c>
-      <c r="J91">
-        <v>1.419235</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>HAQER</t>
-        </is>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>Sst__Sst</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>adult_brain_post_mortem.Emani-Science2024</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>normalApproximate</t>
-        </is>
-      </c>
-      <c r="E92">
-        <v>892</v>
-      </c>
-      <c r="F92">
-        <v>37045</v>
-      </c>
-      <c r="G92">
-        <v>1</v>
-      </c>
-      <c r="H92">
-        <v>5.417535</v>
-      </c>
-      <c r="I92">
-        <v>0.184586</v>
-      </c>
-      <c r="J92">
-        <v>0.9836672</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>HAR</t>
-        </is>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>Sst__Sst</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>adult_brain_post_mortem.Emani-Science2024</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>normalApproximate</t>
-        </is>
-      </c>
-      <c r="E93">
-        <v>2645</v>
-      </c>
-      <c r="F93">
-        <v>37045</v>
-      </c>
-      <c r="G93">
-        <v>8</v>
-      </c>
-      <c r="H93">
-        <v>6.595455</v>
-      </c>
-      <c r="I93">
-        <v>1.212956</v>
-      </c>
-      <c r="J93">
-        <v>0.3612783</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>RAND</t>
-        </is>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>Sst__Sst</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>adult_brain_post_mortem.Emani-Science2024</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>normalApproximate</t>
-        </is>
-      </c>
-      <c r="E94">
-        <v>1388</v>
-      </c>
-      <c r="F94">
-        <v>37045</v>
-      </c>
-      <c r="G94">
-        <v>2</v>
-      </c>
-      <c r="H94">
-        <v>9.118249</v>
-      </c>
-      <c r="I94">
-        <v>0.21934</v>
-      </c>
-      <c r="J94">
-        <v>0.9945033</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>HAQER</t>
-        </is>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>Vip</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>adult_brain_post_mortem.Emani-Science2024</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>normalApproximate</t>
-        </is>
-      </c>
-      <c r="E95">
-        <v>892</v>
-      </c>
-      <c r="F95">
-        <v>56960</v>
-      </c>
-      <c r="G95">
-        <v>5</v>
-      </c>
-      <c r="H95">
-        <v>8.431732</v>
-      </c>
-      <c r="I95">
-        <v>0.592998</v>
-      </c>
-      <c r="J95">
-        <v>0.9143054</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>HAR</t>
-        </is>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>Vip</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>adult_brain_post_mortem.Emani-Science2024</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>normalApproximate</t>
-        </is>
-      </c>
-      <c r="E96">
-        <v>2645</v>
-      </c>
-      <c r="F96">
-        <v>56960</v>
-      </c>
-      <c r="G96">
-        <v>8</v>
-      </c>
-      <c r="H96">
-        <v>10.156824</v>
-      </c>
-      <c r="I96">
-        <v>0.787648</v>
-      </c>
-      <c r="J96">
-        <v>0.7993182</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>RAND</t>
-        </is>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>Vip</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>adult_brain_post_mortem.Emani-Science2024</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>normalApproximate</t>
-        </is>
-      </c>
-      <c r="E97">
-        <v>1388</v>
-      </c>
-      <c r="F97">
-        <v>56960</v>
-      </c>
-      <c r="G97">
-        <v>6</v>
-      </c>
-      <c r="H97">
-        <v>14.211315</v>
-      </c>
-      <c r="I97">
-        <v>0.422199</v>
-      </c>
-      <c r="J97">
         <v>0.9900875</v>
       </c>
     </row>
@@ -11336,6 +10869,4936 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K109"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>evo_annot</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>chromatin_accessibility_set</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>class</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>enrichment_method</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>n_elements_evo_annot</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>n_elements_chromatin_accessibility_set</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>n_overlapping_elements</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>n_expected_overlaps</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>enrichment</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>enrichment_p</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>HAQER</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>ASCT</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>human_specific_chromatin_accessibility</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Non-neuronal</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>normalApproximate</t>
+        </is>
+      </c>
+      <c r="F2">
+        <v>892</v>
+      </c>
+      <c r="G2">
+        <v>3248</v>
+      </c>
+      <c r="H2">
+        <v>724</v>
+      </c>
+      <c r="I2">
+        <v>664.256885</v>
+      </c>
+      <c r="J2">
+        <v>1.08994</v>
+      </c>
+      <c r="K2">
+        <v>2.678869E-06</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>HAR</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>ASCT</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>human_specific_chromatin_accessibility</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Non-neuronal</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>normalApproximate</t>
+        </is>
+      </c>
+      <c r="F3">
+        <v>2645</v>
+      </c>
+      <c r="G3">
+        <v>3248</v>
+      </c>
+      <c r="H3">
+        <v>1805</v>
+      </c>
+      <c r="I3">
+        <v>1967.916318</v>
+      </c>
+      <c r="J3">
+        <v>0.917214</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>RAND</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>ASCT</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>human_specific_chromatin_accessibility</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Non-neuronal</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>normalApproximate</t>
+        </is>
+      </c>
+      <c r="F4">
+        <v>1388</v>
+      </c>
+      <c r="G4">
+        <v>3248</v>
+      </c>
+      <c r="H4">
+        <v>859</v>
+      </c>
+      <c r="I4">
+        <v>1033.684674</v>
+      </c>
+      <c r="J4">
+        <v>0.831008</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>HAQER</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>human_specific_chromatin_accessibility</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>vGlut+</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>normalApproximate</t>
+        </is>
+      </c>
+      <c r="F5">
+        <v>892</v>
+      </c>
+      <c r="G5">
+        <v>3467</v>
+      </c>
+      <c r="H5">
+        <v>690</v>
+      </c>
+      <c r="I5">
+        <v>640.403399</v>
+      </c>
+      <c r="J5">
+        <v>1.077446</v>
+      </c>
+      <c r="K5">
+        <v>0.0001291476</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>HAR</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>human_specific_chromatin_accessibility</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>vGlut+</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>normalApproximate</t>
+        </is>
+      </c>
+      <c r="F6">
+        <v>2645</v>
+      </c>
+      <c r="G6">
+        <v>3467</v>
+      </c>
+      <c r="H6">
+        <v>1731</v>
+      </c>
+      <c r="I6">
+        <v>1897.057996</v>
+      </c>
+      <c r="J6">
+        <v>0.912466</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>RAND</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>human_specific_chromatin_accessibility</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>vGlut+</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>normalApproximate</t>
+        </is>
+      </c>
+      <c r="F7">
+        <v>1388</v>
+      </c>
+      <c r="G7">
+        <v>3467</v>
+      </c>
+      <c r="H7">
+        <v>817</v>
+      </c>
+      <c r="I7">
+        <v>996.571351</v>
+      </c>
+      <c r="J7">
+        <v>0.819811</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>HAQER</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>FOXP2</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>human_specific_chromatin_accessibility</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>GABA+</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>normalApproximate</t>
+        </is>
+      </c>
+      <c r="F8">
+        <v>892</v>
+      </c>
+      <c r="G8">
+        <v>3893</v>
+      </c>
+      <c r="H8">
+        <v>473</v>
+      </c>
+      <c r="I8">
+        <v>423.694651</v>
+      </c>
+      <c r="J8">
+        <v>1.11637</v>
+      </c>
+      <c r="K8">
+        <v>0.0005321324</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>HAR</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>FOXP2</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>human_specific_chromatin_accessibility</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>GABA+</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>normalApproximate</t>
+        </is>
+      </c>
+      <c r="F9">
+        <v>2645</v>
+      </c>
+      <c r="G9">
+        <v>3893</v>
+      </c>
+      <c r="H9">
+        <v>956</v>
+      </c>
+      <c r="I9">
+        <v>1254.223493</v>
+      </c>
+      <c r="J9">
+        <v>0.762225</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>RAND</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>FOXP2</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>human_specific_chromatin_accessibility</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>GABA+</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>normalApproximate</t>
+        </is>
+      </c>
+      <c r="F10">
+        <v>1388</v>
+      </c>
+      <c r="G10">
+        <v>3893</v>
+      </c>
+      <c r="H10">
+        <v>499</v>
+      </c>
+      <c r="I10">
+        <v>659.36777</v>
+      </c>
+      <c r="J10">
+        <v>0.756786</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>HAQER</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>ITL 2-3</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>human_specific_chromatin_accessibility</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>vGlut+</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>normalApproximate</t>
+        </is>
+      </c>
+      <c r="F11">
+        <v>892</v>
+      </c>
+      <c r="G11">
+        <v>1589</v>
+      </c>
+      <c r="H11">
+        <v>819</v>
+      </c>
+      <c r="I11">
+        <v>775.254094</v>
+      </c>
+      <c r="J11">
+        <v>1.056428</v>
+      </c>
+      <c r="K11">
+        <v>8.734708999999999E-06</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>HAR</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>ITL 2-3</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>human_specific_chromatin_accessibility</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>vGlut+</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>normalApproximate</t>
+        </is>
+      </c>
+      <c r="F12">
+        <v>2645</v>
+      </c>
+      <c r="G12">
+        <v>1589</v>
+      </c>
+      <c r="H12">
+        <v>2331</v>
+      </c>
+      <c r="I12">
+        <v>2297.952237</v>
+      </c>
+      <c r="J12">
+        <v>1.014381</v>
+      </c>
+      <c r="K12">
+        <v>0.03041786</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>RAND</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>ITL 2-3</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>human_specific_chromatin_accessibility</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>vGlut+</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>normalApproximate</t>
+        </is>
+      </c>
+      <c r="F13">
+        <v>1388</v>
+      </c>
+      <c r="G13">
+        <v>1589</v>
+      </c>
+      <c r="H13">
+        <v>1028</v>
+      </c>
+      <c r="I13">
+        <v>1206.369485</v>
+      </c>
+      <c r="J13">
+        <v>0.852144</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>HAQER</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>ITL 4</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>human_specific_chromatin_accessibility</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>vGlut+</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>normalApproximate</t>
+        </is>
+      </c>
+      <c r="F14">
+        <v>892</v>
+      </c>
+      <c r="G14">
+        <v>3123</v>
+      </c>
+      <c r="H14">
+        <v>717</v>
+      </c>
+      <c r="I14">
+        <v>678.133565</v>
+      </c>
+      <c r="J14">
+        <v>1.057314</v>
+      </c>
+      <c r="K14">
+        <v>0.001307715</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>HAR</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>ITL 4</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>human_specific_chromatin_accessibility</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>vGlut+</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>normalApproximate</t>
+        </is>
+      </c>
+      <c r="F15">
+        <v>2645</v>
+      </c>
+      <c r="G15">
+        <v>3123</v>
+      </c>
+      <c r="H15">
+        <v>1912</v>
+      </c>
+      <c r="I15">
+        <v>2009.125722</v>
+      </c>
+      <c r="J15">
+        <v>0.951658</v>
+      </c>
+      <c r="K15">
+        <v>0.9999956</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>RAND</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>ITL 4</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>human_specific_chromatin_accessibility</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>vGlut+</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>normalApproximate</t>
+        </is>
+      </c>
+      <c r="F16">
+        <v>1388</v>
+      </c>
+      <c r="G16">
+        <v>3123</v>
+      </c>
+      <c r="H16">
+        <v>875</v>
+      </c>
+      <c r="I16">
+        <v>1055.274763</v>
+      </c>
+      <c r="J16">
+        <v>0.829168</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>HAQER</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>ITL 5</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>human_specific_chromatin_accessibility</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>vGlut+</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>normalApproximate</t>
+        </is>
+      </c>
+      <c r="F17">
+        <v>892</v>
+      </c>
+      <c r="G17">
+        <v>2299</v>
+      </c>
+      <c r="H17">
+        <v>783</v>
+      </c>
+      <c r="I17">
+        <v>740.591487</v>
+      </c>
+      <c r="J17">
+        <v>1.057263</v>
+      </c>
+      <c r="K17">
+        <v>9.234802000000001E-05</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>HAR</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>ITL 5</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>human_specific_chromatin_accessibility</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>vGlut+</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>normalApproximate</t>
+        </is>
+      </c>
+      <c r="F18">
+        <v>2645</v>
+      </c>
+      <c r="G18">
+        <v>2299</v>
+      </c>
+      <c r="H18">
+        <v>2183</v>
+      </c>
+      <c r="I18">
+        <v>2194.780179</v>
+      </c>
+      <c r="J18">
+        <v>0.994633</v>
+      </c>
+      <c r="K18">
+        <v>0.7374215</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>RAND</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>ITL 5</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>human_specific_chromatin_accessibility</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>vGlut+</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>normalApproximate</t>
+        </is>
+      </c>
+      <c r="F19">
+        <v>1388</v>
+      </c>
+      <c r="G19">
+        <v>2299</v>
+      </c>
+      <c r="H19">
+        <v>971</v>
+      </c>
+      <c r="I19">
+        <v>1152.446786</v>
+      </c>
+      <c r="J19">
+        <v>0.8425550000000001</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>HAQER</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>ITL 6_2</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>human_specific_chromatin_accessibility</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>vGlut+</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>normalApproximate</t>
+        </is>
+      </c>
+      <c r="F20">
+        <v>892</v>
+      </c>
+      <c r="G20">
+        <v>3534</v>
+      </c>
+      <c r="H20">
+        <v>694</v>
+      </c>
+      <c r="I20">
+        <v>629.483288</v>
+      </c>
+      <c r="J20">
+        <v>1.102492</v>
+      </c>
+      <c r="K20">
+        <v>1.273104E-06</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>HAR</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>ITL 6_2</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>human_specific_chromatin_accessibility</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>vGlut+</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>normalApproximate</t>
+        </is>
+      </c>
+      <c r="F21">
+        <v>2645</v>
+      </c>
+      <c r="G21">
+        <v>3534</v>
+      </c>
+      <c r="H21">
+        <v>1645</v>
+      </c>
+      <c r="I21">
+        <v>1864.639267</v>
+      </c>
+      <c r="J21">
+        <v>0.882208</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>RAND</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>ITL 6_2</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>human_specific_chromatin_accessibility</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>vGlut+</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>normalApproximate</t>
+        </is>
+      </c>
+      <c r="F22">
+        <v>1388</v>
+      </c>
+      <c r="G22">
+        <v>3534</v>
+      </c>
+      <c r="H22">
+        <v>804</v>
+      </c>
+      <c r="I22">
+        <v>979.580224</v>
+      </c>
+      <c r="J22">
+        <v>0.82076</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>HAQER</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>ITL 6</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>human_specific_chromatin_accessibility</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>vGlut+</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>normalApproximate</t>
+        </is>
+      </c>
+      <c r="F23">
+        <v>892</v>
+      </c>
+      <c r="G23">
+        <v>2847</v>
+      </c>
+      <c r="H23">
+        <v>743</v>
+      </c>
+      <c r="I23">
+        <v>701.676571</v>
+      </c>
+      <c r="J23">
+        <v>1.058892</v>
+      </c>
+      <c r="K23">
+        <v>0.0004229411</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>HAR</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>ITL 6</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>human_specific_chromatin_accessibility</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>vGlut+</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>normalApproximate</t>
+        </is>
+      </c>
+      <c r="F24">
+        <v>2645</v>
+      </c>
+      <c r="G24">
+        <v>2847</v>
+      </c>
+      <c r="H24">
+        <v>1967</v>
+      </c>
+      <c r="I24">
+        <v>2079.089619</v>
+      </c>
+      <c r="J24">
+        <v>0.946087</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>RAND</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>ITL 6</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>human_specific_chromatin_accessibility</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>vGlut+</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>normalApproximate</t>
+        </is>
+      </c>
+      <c r="F25">
+        <v>1388</v>
+      </c>
+      <c r="G25">
+        <v>2847</v>
+      </c>
+      <c r="H25">
+        <v>907</v>
+      </c>
+      <c r="I25">
+        <v>1091.903588</v>
+      </c>
+      <c r="J25">
+        <v>0.830659</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>HAQER</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>L6B</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>human_specific_chromatin_accessibility</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>vGlut+</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>normalApproximate</t>
+        </is>
+      </c>
+      <c r="F26">
+        <v>892</v>
+      </c>
+      <c r="G26">
+        <v>3450</v>
+      </c>
+      <c r="H26">
+        <v>687</v>
+      </c>
+      <c r="I26">
+        <v>648.053625</v>
+      </c>
+      <c r="J26">
+        <v>1.060097</v>
+      </c>
+      <c r="K26">
+        <v>0.001934775</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>HAR</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>L6B</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>human_specific_chromatin_accessibility</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>vGlut+</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>normalApproximate</t>
+        </is>
+      </c>
+      <c r="F27">
+        <v>2645</v>
+      </c>
+      <c r="G27">
+        <v>3450</v>
+      </c>
+      <c r="H27">
+        <v>1777</v>
+      </c>
+      <c r="I27">
+        <v>1919.752497</v>
+      </c>
+      <c r="J27">
+        <v>0.92564</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>RAND</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>L6B</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>human_specific_chromatin_accessibility</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>vGlut+</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>normalApproximate</t>
+        </is>
+      </c>
+      <c r="F28">
+        <v>1388</v>
+      </c>
+      <c r="G28">
+        <v>3450</v>
+      </c>
+      <c r="H28">
+        <v>829</v>
+      </c>
+      <c r="I28">
+        <v>1008.475364</v>
+      </c>
+      <c r="J28">
+        <v>0.822033</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>HAQER</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>LAMP5</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>human_specific_chromatin_accessibility</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>GABA+</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>normalApproximate</t>
+        </is>
+      </c>
+      <c r="F29">
+        <v>892</v>
+      </c>
+      <c r="G29">
+        <v>3909</v>
+      </c>
+      <c r="H29">
+        <v>581</v>
+      </c>
+      <c r="I29">
+        <v>532.112919</v>
+      </c>
+      <c r="J29">
+        <v>1.091874</v>
+      </c>
+      <c r="K29">
+        <v>0.0004782369</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>HAR</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>LAMP5</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>human_specific_chromatin_accessibility</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>GABA+</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>normalApproximate</t>
+        </is>
+      </c>
+      <c r="F30">
+        <v>2645</v>
+      </c>
+      <c r="G30">
+        <v>3909</v>
+      </c>
+      <c r="H30">
+        <v>1255</v>
+      </c>
+      <c r="I30">
+        <v>1575.706214</v>
+      </c>
+      <c r="J30">
+        <v>0.796468</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>RAND</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>LAMP5</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>human_specific_chromatin_accessibility</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>GABA+</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>normalApproximate</t>
+        </is>
+      </c>
+      <c r="F31">
+        <v>1388</v>
+      </c>
+      <c r="G31">
+        <v>3909</v>
+      </c>
+      <c r="H31">
+        <v>667</v>
+      </c>
+      <c r="I31">
+        <v>828.073636</v>
+      </c>
+      <c r="J31">
+        <v>0.805484</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>HAQER</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>MGC</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>human_specific_chromatin_accessibility</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Non-neuronal</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>normalApproximate</t>
+        </is>
+      </c>
+      <c r="F32">
+        <v>892</v>
+      </c>
+      <c r="G32">
+        <v>3422</v>
+      </c>
+      <c r="H32">
+        <v>638</v>
+      </c>
+      <c r="I32">
+        <v>583.78331</v>
+      </c>
+      <c r="J32">
+        <v>1.092871</v>
+      </c>
+      <c r="K32">
+        <v>7.749680000000001E-05</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>HAR</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>MGC</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>human_specific_chromatin_accessibility</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Non-neuronal</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>normalApproximate</t>
+        </is>
+      </c>
+      <c r="F33">
+        <v>2645</v>
+      </c>
+      <c r="G33">
+        <v>3422</v>
+      </c>
+      <c r="H33">
+        <v>1472</v>
+      </c>
+      <c r="I33">
+        <v>1729.195072</v>
+      </c>
+      <c r="J33">
+        <v>0.851263</v>
+      </c>
+      <c r="K33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>RAND</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>MGC</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>human_specific_chromatin_accessibility</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Non-neuronal</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>normalApproximate</t>
+        </is>
+      </c>
+      <c r="F34">
+        <v>1388</v>
+      </c>
+      <c r="G34">
+        <v>3422</v>
+      </c>
+      <c r="H34">
+        <v>754</v>
+      </c>
+      <c r="I34">
+        <v>908.466132</v>
+      </c>
+      <c r="J34">
+        <v>0.82997</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>HAQER</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>MSN</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>human_specific_chromatin_accessibility</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>GABA+</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>normalApproximate</t>
+        </is>
+      </c>
+      <c r="F35">
+        <v>892</v>
+      </c>
+      <c r="G35">
+        <v>2558</v>
+      </c>
+      <c r="H35">
+        <v>784</v>
+      </c>
+      <c r="I35">
+        <v>722.556381</v>
+      </c>
+      <c r="J35">
+        <v>1.085036</v>
+      </c>
+      <c r="K35">
+        <v>9.779168E-08</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>HAR</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>MSN</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>human_specific_chromatin_accessibility</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>GABA+</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>normalApproximate</t>
+        </is>
+      </c>
+      <c r="F36">
+        <v>2645</v>
+      </c>
+      <c r="G36">
+        <v>2558</v>
+      </c>
+      <c r="H36">
+        <v>2066</v>
+      </c>
+      <c r="I36">
+        <v>2141.160197</v>
+      </c>
+      <c r="J36">
+        <v>0.964897</v>
+      </c>
+      <c r="K36">
+        <v>0.9999104</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>RAND</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>MSN</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>human_specific_chromatin_accessibility</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>GABA+</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>normalApproximate</t>
+        </is>
+      </c>
+      <c r="F37">
+        <v>1388</v>
+      </c>
+      <c r="G37">
+        <v>2558</v>
+      </c>
+      <c r="H37">
+        <v>962</v>
+      </c>
+      <c r="I37">
+        <v>1124.387872</v>
+      </c>
+      <c r="J37">
+        <v>0.855577</v>
+      </c>
+      <c r="K37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>HAQER</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>NP</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>human_specific_chromatin_accessibility</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>vGlut+</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>normalApproximate</t>
+        </is>
+      </c>
+      <c r="F38">
+        <v>892</v>
+      </c>
+      <c r="G38">
+        <v>3891</v>
+      </c>
+      <c r="H38">
+        <v>542</v>
+      </c>
+      <c r="I38">
+        <v>491.075274</v>
+      </c>
+      <c r="J38">
+        <v>1.1037</v>
+      </c>
+      <c r="K38">
+        <v>0.0003434994</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>HAR</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>NP</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>human_specific_chromatin_accessibility</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>vGlut+</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>normalApproximate</t>
+        </is>
+      </c>
+      <c r="F39">
+        <v>2645</v>
+      </c>
+      <c r="G39">
+        <v>3891</v>
+      </c>
+      <c r="H39">
+        <v>1191</v>
+      </c>
+      <c r="I39">
+        <v>1454.025363</v>
+      </c>
+      <c r="J39">
+        <v>0.819105</v>
+      </c>
+      <c r="K39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>RAND</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>NP</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>human_specific_chromatin_accessibility</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>vGlut+</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>normalApproximate</t>
+        </is>
+      </c>
+      <c r="F40">
+        <v>1388</v>
+      </c>
+      <c r="G40">
+        <v>3891</v>
+      </c>
+      <c r="H40">
+        <v>585</v>
+      </c>
+      <c r="I40">
+        <v>764.215864</v>
+      </c>
+      <c r="J40">
+        <v>0.765491</v>
+      </c>
+      <c r="K40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>HAQER</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>OGC</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>human_specific_chromatin_accessibility</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Non-neuronal</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>normalApproximate</t>
+        </is>
+      </c>
+      <c r="F41">
+        <v>892</v>
+      </c>
+      <c r="G41">
+        <v>3144</v>
+      </c>
+      <c r="H41">
+        <v>739</v>
+      </c>
+      <c r="I41">
+        <v>676.69295</v>
+      </c>
+      <c r="J41">
+        <v>1.092076</v>
+      </c>
+      <c r="K41">
+        <v>6.579287E-07</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>HAR</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>OGC</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>human_specific_chromatin_accessibility</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Non-neuronal</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>normalApproximate</t>
+        </is>
+      </c>
+      <c r="F42">
+        <v>2645</v>
+      </c>
+      <c r="G42">
+        <v>3144</v>
+      </c>
+      <c r="H42">
+        <v>1855</v>
+      </c>
+      <c r="I42">
+        <v>2004.84978</v>
+      </c>
+      <c r="J42">
+        <v>0.925256</v>
+      </c>
+      <c r="K42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>RAND</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>OGC</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>human_specific_chromatin_accessibility</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Non-neuronal</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>normalApproximate</t>
+        </is>
+      </c>
+      <c r="F43">
+        <v>1388</v>
+      </c>
+      <c r="G43">
+        <v>3144</v>
+      </c>
+      <c r="H43">
+        <v>891</v>
+      </c>
+      <c r="I43">
+        <v>1053.033697</v>
+      </c>
+      <c r="J43">
+        <v>0.846127</v>
+      </c>
+      <c r="K43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>HAQER</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>OPC</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>human_specific_chromatin_accessibility</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Non-neuronal</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>normalApproximate</t>
+        </is>
+      </c>
+      <c r="F44">
+        <v>892</v>
+      </c>
+      <c r="G44">
+        <v>3355</v>
+      </c>
+      <c r="H44">
+        <v>671</v>
+      </c>
+      <c r="I44">
+        <v>619.097064</v>
+      </c>
+      <c r="J44">
+        <v>1.083837</v>
+      </c>
+      <c r="K44">
+        <v>9.356118999999999E-05</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>HAR</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>OPC</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>human_specific_chromatin_accessibility</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Non-neuronal</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>normalApproximate</t>
+        </is>
+      </c>
+      <c r="F45">
+        <v>2645</v>
+      </c>
+      <c r="G45">
+        <v>3355</v>
+      </c>
+      <c r="H45">
+        <v>1633</v>
+      </c>
+      <c r="I45">
+        <v>1833.945155</v>
+      </c>
+      <c r="J45">
+        <v>0.8904300000000001</v>
+      </c>
+      <c r="K45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>RAND</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>OPC</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>human_specific_chromatin_accessibility</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Non-neuronal</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>normalApproximate</t>
+        </is>
+      </c>
+      <c r="F46">
+        <v>1388</v>
+      </c>
+      <c r="G46">
+        <v>3355</v>
+      </c>
+      <c r="H46">
+        <v>754</v>
+      </c>
+      <c r="I46">
+        <v>963.415406</v>
+      </c>
+      <c r="J46">
+        <v>0.782632</v>
+      </c>
+      <c r="K46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>HAQER</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>PVALB</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>human_specific_chromatin_accessibility</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>GABA+</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>normalApproximate</t>
+        </is>
+      </c>
+      <c r="F47">
+        <v>892</v>
+      </c>
+      <c r="G47">
+        <v>3327</v>
+      </c>
+      <c r="H47">
+        <v>697</v>
+      </c>
+      <c r="I47">
+        <v>637.304493</v>
+      </c>
+      <c r="J47">
+        <v>1.093669</v>
+      </c>
+      <c r="K47">
+        <v>5.687933E-06</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>HAR</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>PVALB</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>human_specific_chromatin_accessibility</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>GABA+</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>normalApproximate</t>
+        </is>
+      </c>
+      <c r="F48">
+        <v>2645</v>
+      </c>
+      <c r="G48">
+        <v>3327</v>
+      </c>
+      <c r="H48">
+        <v>1642</v>
+      </c>
+      <c r="I48">
+        <v>1887.945453</v>
+      </c>
+      <c r="J48">
+        <v>0.869729</v>
+      </c>
+      <c r="K48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>RAND</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>PVALB</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>human_specific_chromatin_accessibility</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>GABA+</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>normalApproximate</t>
+        </is>
+      </c>
+      <c r="F49">
+        <v>1388</v>
+      </c>
+      <c r="G49">
+        <v>3327</v>
+      </c>
+      <c r="H49">
+        <v>777</v>
+      </c>
+      <c r="I49">
+        <v>991.746543</v>
+      </c>
+      <c r="J49">
+        <v>0.783466</v>
+      </c>
+      <c r="K49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>HAQER</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>SST</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>human_specific_chromatin_accessibility</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>GABA+</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>normalApproximate</t>
+        </is>
+      </c>
+      <c r="F50">
+        <v>892</v>
+      </c>
+      <c r="G50">
+        <v>3556</v>
+      </c>
+      <c r="H50">
+        <v>695</v>
+      </c>
+      <c r="I50">
+        <v>636.98266</v>
+      </c>
+      <c r="J50">
+        <v>1.091082</v>
+      </c>
+      <c r="K50">
+        <v>1.00773E-05</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>HAR</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>SST</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>human_specific_chromatin_accessibility</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>GABA+</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>normalApproximate</t>
+        </is>
+      </c>
+      <c r="F51">
+        <v>2645</v>
+      </c>
+      <c r="G51">
+        <v>3556</v>
+      </c>
+      <c r="H51">
+        <v>1649</v>
+      </c>
+      <c r="I51">
+        <v>1886.866253</v>
+      </c>
+      <c r="J51">
+        <v>0.873936</v>
+      </c>
+      <c r="K51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>RAND</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>SST</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>human_specific_chromatin_accessibility</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>GABA+</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>normalApproximate</t>
+        </is>
+      </c>
+      <c r="F52">
+        <v>1388</v>
+      </c>
+      <c r="G52">
+        <v>3556</v>
+      </c>
+      <c r="H52">
+        <v>792</v>
+      </c>
+      <c r="I52">
+        <v>991.250082</v>
+      </c>
+      <c r="J52">
+        <v>0.798991</v>
+      </c>
+      <c r="K52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>HAQER</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>VIP</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>human_specific_chromatin_accessibility</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>GABA+</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>normalApproximate</t>
+        </is>
+      </c>
+      <c r="F53">
+        <v>892</v>
+      </c>
+      <c r="G53">
+        <v>3584</v>
+      </c>
+      <c r="H53">
+        <v>717</v>
+      </c>
+      <c r="I53">
+        <v>650.655842</v>
+      </c>
+      <c r="J53">
+        <v>1.101965</v>
+      </c>
+      <c r="K53">
+        <v>3.457379E-07</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>HAR</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>VIP</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>human_specific_chromatin_accessibility</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>GABA+</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>normalApproximate</t>
+        </is>
+      </c>
+      <c r="F54">
+        <v>2645</v>
+      </c>
+      <c r="G54">
+        <v>3584</v>
+      </c>
+      <c r="H54">
+        <v>1697</v>
+      </c>
+      <c r="I54">
+        <v>1927.398416</v>
+      </c>
+      <c r="J54">
+        <v>0.880461</v>
+      </c>
+      <c r="K54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>RAND</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>VIP</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>human_specific_chromatin_accessibility</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>GABA+</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>normalApproximate</t>
+        </is>
+      </c>
+      <c r="F55">
+        <v>1388</v>
+      </c>
+      <c r="G55">
+        <v>3584</v>
+      </c>
+      <c r="H55">
+        <v>869</v>
+      </c>
+      <c r="I55">
+        <v>1012.527456</v>
+      </c>
+      <c r="J55">
+        <v>0.858248</v>
+      </c>
+      <c r="K55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>HAQER</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>ASCT</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>conserved_chromatin_accessibility</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Non-neuronal</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>normalApproximate</t>
+        </is>
+      </c>
+      <c r="F56">
+        <v>892</v>
+      </c>
+      <c r="G56">
+        <v>2999</v>
+      </c>
+      <c r="H56">
+        <v>514</v>
+      </c>
+      <c r="I56">
+        <v>547.968994</v>
+      </c>
+      <c r="J56">
+        <v>0.938009</v>
+      </c>
+      <c r="K56">
+        <v>0.9911416</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>HAR</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>ASCT</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>conserved_chromatin_accessibility</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Non-neuronal</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>normalApproximate</t>
+        </is>
+      </c>
+      <c r="F57">
+        <v>2645</v>
+      </c>
+      <c r="G57">
+        <v>2999</v>
+      </c>
+      <c r="H57">
+        <v>1640</v>
+      </c>
+      <c r="I57">
+        <v>1623.218171</v>
+      </c>
+      <c r="J57">
+        <v>1.010339</v>
+      </c>
+      <c r="K57">
+        <v>0.2577668</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>RAND</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>ASCT</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>conserved_chromatin_accessibility</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Non-neuronal</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>normalApproximate</t>
+        </is>
+      </c>
+      <c r="F58">
+        <v>1388</v>
+      </c>
+      <c r="G58">
+        <v>2999</v>
+      </c>
+      <c r="H58">
+        <v>575</v>
+      </c>
+      <c r="I58">
+        <v>852.728606</v>
+      </c>
+      <c r="J58">
+        <v>0.674306</v>
+      </c>
+      <c r="K58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>HAQER</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>conserved_chromatin_accessibility</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>vGlut+</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>normalApproximate</t>
+        </is>
+      </c>
+      <c r="F59">
+        <v>892</v>
+      </c>
+      <c r="G59">
+        <v>3192</v>
+      </c>
+      <c r="H59">
+        <v>532</v>
+      </c>
+      <c r="I59">
+        <v>581.735686</v>
+      </c>
+      <c r="J59">
+        <v>0.914505</v>
+      </c>
+      <c r="K59">
+        <v>0.999794</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>HAR</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>conserved_chromatin_accessibility</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>vGlut+</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>normalApproximate</t>
+        </is>
+      </c>
+      <c r="F60">
+        <v>2645</v>
+      </c>
+      <c r="G60">
+        <v>3192</v>
+      </c>
+      <c r="H60">
+        <v>1740</v>
+      </c>
+      <c r="I60">
+        <v>1723.241263</v>
+      </c>
+      <c r="J60">
+        <v>1.009725</v>
+      </c>
+      <c r="K60">
+        <v>0.2535017</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>RAND</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>conserved_chromatin_accessibility</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>vGlut+</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>normalApproximate</t>
+        </is>
+      </c>
+      <c r="F61">
+        <v>1388</v>
+      </c>
+      <c r="G61">
+        <v>3192</v>
+      </c>
+      <c r="H61">
+        <v>655</v>
+      </c>
+      <c r="I61">
+        <v>905.275641</v>
+      </c>
+      <c r="J61">
+        <v>0.723537</v>
+      </c>
+      <c r="K61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>HAQER</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>FOXP2</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>conserved_chromatin_accessibility</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>GABA+</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>normalApproximate</t>
+        </is>
+      </c>
+      <c r="F62">
+        <v>892</v>
+      </c>
+      <c r="G62">
+        <v>3456</v>
+      </c>
+      <c r="H62">
+        <v>467</v>
+      </c>
+      <c r="I62">
+        <v>509.141123</v>
+      </c>
+      <c r="J62">
+        <v>0.917231</v>
+      </c>
+      <c r="K62">
+        <v>0.9980434</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>HAR</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>FOXP2</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>conserved_chromatin_accessibility</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>GABA+</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>normalApproximate</t>
+        </is>
+      </c>
+      <c r="F63">
+        <v>2645</v>
+      </c>
+      <c r="G63">
+        <v>3456</v>
+      </c>
+      <c r="H63">
+        <v>1431</v>
+      </c>
+      <c r="I63">
+        <v>1507.834584</v>
+      </c>
+      <c r="J63">
+        <v>0.949043</v>
+      </c>
+      <c r="K63">
+        <v>0.9988075</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>RAND</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>FOXP2</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>conserved_chromatin_accessibility</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>GABA+</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>normalApproximate</t>
+        </is>
+      </c>
+      <c r="F64">
+        <v>1388</v>
+      </c>
+      <c r="G64">
+        <v>3456</v>
+      </c>
+      <c r="H64">
+        <v>531</v>
+      </c>
+      <c r="I64">
+        <v>792.319086</v>
+      </c>
+      <c r="J64">
+        <v>0.670185</v>
+      </c>
+      <c r="K64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>HAQER</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>ITL 2-3</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>conserved_chromatin_accessibility</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>vGlut+</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>normalApproximate</t>
+        </is>
+      </c>
+      <c r="F65">
+        <v>892</v>
+      </c>
+      <c r="G65">
+        <v>2880</v>
+      </c>
+      <c r="H65">
+        <v>570</v>
+      </c>
+      <c r="I65">
+        <v>628.377842</v>
+      </c>
+      <c r="J65">
+        <v>0.907098</v>
+      </c>
+      <c r="K65">
+        <v>0.9999922999999999</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>HAR</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>ITL 2-3</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>conserved_chromatin_accessibility</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>vGlut+</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>normalApproximate</t>
+        </is>
+      </c>
+      <c r="F66">
+        <v>2645</v>
+      </c>
+      <c r="G66">
+        <v>2880</v>
+      </c>
+      <c r="H66">
+        <v>1970</v>
+      </c>
+      <c r="I66">
+        <v>1861.716748</v>
+      </c>
+      <c r="J66">
+        <v>1.058163</v>
+      </c>
+      <c r="K66">
+        <v>2.208605E-06</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>RAND</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>ITL 2-3</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>conserved_chromatin_accessibility</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>vGlut+</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>normalApproximate</t>
+        </is>
+      </c>
+      <c r="F67">
+        <v>1388</v>
+      </c>
+      <c r="G67">
+        <v>2880</v>
+      </c>
+      <c r="H67">
+        <v>706</v>
+      </c>
+      <c r="I67">
+        <v>977.847064</v>
+      </c>
+      <c r="J67">
+        <v>0.721994</v>
+      </c>
+      <c r="K67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>HAQER</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>ITL 4</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>conserved_chromatin_accessibility</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>vGlut+</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>normalApproximate</t>
+        </is>
+      </c>
+      <c r="F68">
+        <v>892</v>
+      </c>
+      <c r="G68">
+        <v>3265</v>
+      </c>
+      <c r="H68">
+        <v>516</v>
+      </c>
+      <c r="I68">
+        <v>544.270615</v>
+      </c>
+      <c r="J68">
+        <v>0.948058</v>
+      </c>
+      <c r="K68">
+        <v>0.9758975</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>HAR</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>ITL 4</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>conserved_chromatin_accessibility</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>vGlut+</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>normalApproximate</t>
+        </is>
+      </c>
+      <c r="F69">
+        <v>2645</v>
+      </c>
+      <c r="G69">
+        <v>3265</v>
+      </c>
+      <c r="H69">
+        <v>1570</v>
+      </c>
+      <c r="I69">
+        <v>1612.107994</v>
+      </c>
+      <c r="J69">
+        <v>0.97388</v>
+      </c>
+      <c r="K69">
+        <v>0.9552721</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>RAND</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>ITL 4</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>conserved_chromatin_accessibility</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>vGlut+</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>normalApproximate</t>
+        </is>
+      </c>
+      <c r="F70">
+        <v>1388</v>
+      </c>
+      <c r="G70">
+        <v>3265</v>
+      </c>
+      <c r="H70">
+        <v>581</v>
+      </c>
+      <c r="I70">
+        <v>846.978764</v>
+      </c>
+      <c r="J70">
+        <v>0.685968</v>
+      </c>
+      <c r="K70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>HAQER</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>ITL 5</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>conserved_chromatin_accessibility</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>vGlut+</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>normalApproximate</t>
+        </is>
+      </c>
+      <c r="F71">
+        <v>892</v>
+      </c>
+      <c r="G71">
+        <v>2974</v>
+      </c>
+      <c r="H71">
+        <v>572</v>
+      </c>
+      <c r="I71">
+        <v>617.474822</v>
+      </c>
+      <c r="J71">
+        <v>0.926354</v>
+      </c>
+      <c r="K71">
+        <v>0.9995747</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>HAR</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>ITL 5</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>conserved_chromatin_accessibility</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>vGlut+</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>normalApproximate</t>
+        </is>
+      </c>
+      <c r="F72">
+        <v>2645</v>
+      </c>
+      <c r="G72">
+        <v>2974</v>
+      </c>
+      <c r="H72">
+        <v>1943</v>
+      </c>
+      <c r="I72">
+        <v>1829.336903</v>
+      </c>
+      <c r="J72">
+        <v>1.062133</v>
+      </c>
+      <c r="K72">
+        <v>9.450595E-07</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>RAND</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>ITL 5</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>conserved_chromatin_accessibility</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>vGlut+</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>normalApproximate</t>
+        </is>
+      </c>
+      <c r="F73">
+        <v>1388</v>
+      </c>
+      <c r="G73">
+        <v>2974</v>
+      </c>
+      <c r="H73">
+        <v>720</v>
+      </c>
+      <c r="I73">
+        <v>960.883237</v>
+      </c>
+      <c r="J73">
+        <v>0.7493109999999999</v>
+      </c>
+      <c r="K73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>HAQER</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>ITL 6_2</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>conserved_chromatin_accessibility</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>vGlut+</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>normalApproximate</t>
+        </is>
+      </c>
+      <c r="F74">
+        <v>892</v>
+      </c>
+      <c r="G74">
+        <v>3251</v>
+      </c>
+      <c r="H74">
+        <v>498</v>
+      </c>
+      <c r="I74">
+        <v>552.265211</v>
+      </c>
+      <c r="J74">
+        <v>0.901741</v>
+      </c>
+      <c r="K74">
+        <v>0.9999206</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>HAR</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>ITL 6_2</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>conserved_chromatin_accessibility</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>vGlut+</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>normalApproximate</t>
+        </is>
+      </c>
+      <c r="F75">
+        <v>2645</v>
+      </c>
+      <c r="G75">
+        <v>3251</v>
+      </c>
+      <c r="H75">
+        <v>1633</v>
+      </c>
+      <c r="I75">
+        <v>1635.821386</v>
+      </c>
+      <c r="J75">
+        <v>0.998275</v>
+      </c>
+      <c r="K75">
+        <v>0.5528861</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>RAND</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>ITL 6_2</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>conserved_chromatin_accessibility</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>vGlut+</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>normalApproximate</t>
+        </is>
+      </c>
+      <c r="F76">
+        <v>1388</v>
+      </c>
+      <c r="G76">
+        <v>3251</v>
+      </c>
+      <c r="H76">
+        <v>575</v>
+      </c>
+      <c r="I76">
+        <v>859.418717</v>
+      </c>
+      <c r="J76">
+        <v>0.669057</v>
+      </c>
+      <c r="K76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>HAQER</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>ITL 6</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>conserved_chromatin_accessibility</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>vGlut+</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>normalApproximate</t>
+        </is>
+      </c>
+      <c r="F77">
+        <v>892</v>
+      </c>
+      <c r="G77">
+        <v>2936</v>
+      </c>
+      <c r="H77">
+        <v>559</v>
+      </c>
+      <c r="I77">
+        <v>616.200891</v>
+      </c>
+      <c r="J77">
+        <v>0.907172</v>
+      </c>
+      <c r="K77">
+        <v>0.9999855</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>HAR</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>ITL 6</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>conserved_chromatin_accessibility</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>vGlut+</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>normalApproximate</t>
+        </is>
+      </c>
+      <c r="F78">
+        <v>2645</v>
+      </c>
+      <c r="G78">
+        <v>2936</v>
+      </c>
+      <c r="H78">
+        <v>1947</v>
+      </c>
+      <c r="I78">
+        <v>1825.578992</v>
+      </c>
+      <c r="J78">
+        <v>1.066511</v>
+      </c>
+      <c r="K78">
+        <v>1.837927E-07</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>RAND</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>ITL 6</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>conserved_chromatin_accessibility</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>vGlut+</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>normalApproximate</t>
+        </is>
+      </c>
+      <c r="F79">
+        <v>1388</v>
+      </c>
+      <c r="G79">
+        <v>2936</v>
+      </c>
+      <c r="H79">
+        <v>700</v>
+      </c>
+      <c r="I79">
+        <v>958.899913</v>
+      </c>
+      <c r="J79">
+        <v>0.730003</v>
+      </c>
+      <c r="K79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>HAQER</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>L6B</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>conserved_chromatin_accessibility</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>vGlut+</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>normalApproximate</t>
+        </is>
+      </c>
+      <c r="F80">
+        <v>892</v>
+      </c>
+      <c r="G80">
+        <v>3238</v>
+      </c>
+      <c r="H80">
+        <v>526</v>
+      </c>
+      <c r="I80">
+        <v>575.009573</v>
+      </c>
+      <c r="J80">
+        <v>0.914767</v>
+      </c>
+      <c r="K80">
+        <v>0.9997341</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>HAR</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>L6B</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>conserved_chromatin_accessibility</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>vGlut+</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>normalApproximate</t>
+        </is>
+      </c>
+      <c r="F81">
+        <v>2645</v>
+      </c>
+      <c r="G81">
+        <v>3238</v>
+      </c>
+      <c r="H81">
+        <v>1720</v>
+      </c>
+      <c r="I81">
+        <v>1703.270006</v>
+      </c>
+      <c r="J81">
+        <v>1.009822</v>
+      </c>
+      <c r="K81">
+        <v>0.2549134</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>RAND</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>L6B</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>conserved_chromatin_accessibility</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>vGlut+</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>normalApproximate</t>
+        </is>
+      </c>
+      <c r="F82">
+        <v>1388</v>
+      </c>
+      <c r="G82">
+        <v>3238</v>
+      </c>
+      <c r="H82">
+        <v>644</v>
+      </c>
+      <c r="I82">
+        <v>894.810056</v>
+      </c>
+      <c r="J82">
+        <v>0.719706</v>
+      </c>
+      <c r="K82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>HAQER</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>LAMP5</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>conserved_chromatin_accessibility</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>GABA+</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>normalApproximate</t>
+        </is>
+      </c>
+      <c r="F83">
+        <v>892</v>
+      </c>
+      <c r="G83">
+        <v>3192</v>
+      </c>
+      <c r="H83">
+        <v>531</v>
+      </c>
+      <c r="I83">
+        <v>582.1840989999999</v>
+      </c>
+      <c r="J83">
+        <v>0.912083</v>
+      </c>
+      <c r="K83">
+        <v>0.9998612</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>HAR</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>LAMP5</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>conserved_chromatin_accessibility</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>GABA+</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>normalApproximate</t>
+        </is>
+      </c>
+      <c r="F84">
+        <v>2645</v>
+      </c>
+      <c r="G84">
+        <v>3192</v>
+      </c>
+      <c r="H84">
+        <v>1822</v>
+      </c>
+      <c r="I84">
+        <v>1724.572355</v>
+      </c>
+      <c r="J84">
+        <v>1.056494</v>
+      </c>
+      <c r="K84">
+        <v>3.796424E-05</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>RAND</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>LAMP5</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>conserved_chromatin_accessibility</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>GABA+</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>normalApproximate</t>
+        </is>
+      </c>
+      <c r="F85">
+        <v>1388</v>
+      </c>
+      <c r="G85">
+        <v>3192</v>
+      </c>
+      <c r="H85">
+        <v>628</v>
+      </c>
+      <c r="I85">
+        <v>905.9734120000001</v>
+      </c>
+      <c r="J85">
+        <v>0.693177</v>
+      </c>
+      <c r="K85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>HAQER</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>MGC</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>conserved_chromatin_accessibility</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Non-neuronal</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>normalApproximate</t>
+        </is>
+      </c>
+      <c r="F86">
+        <v>892</v>
+      </c>
+      <c r="G86">
+        <v>2642</v>
+      </c>
+      <c r="H86">
+        <v>358</v>
+      </c>
+      <c r="I86">
+        <v>375.049856</v>
+      </c>
+      <c r="J86">
+        <v>0.9545400000000001</v>
+      </c>
+      <c r="K86">
+        <v>0.8830974</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>HAR</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>MGC</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>conserved_chromatin_accessibility</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Non-neuronal</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>normalApproximate</t>
+        </is>
+      </c>
+      <c r="F87">
+        <v>2645</v>
+      </c>
+      <c r="G87">
+        <v>2642</v>
+      </c>
+      <c r="H87">
+        <v>777</v>
+      </c>
+      <c r="I87">
+        <v>1110.669276</v>
+      </c>
+      <c r="J87">
+        <v>0.699578</v>
+      </c>
+      <c r="K87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>RAND</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>MGC</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>conserved_chromatin_accessibility</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Non-neuronal</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>normalApproximate</t>
+        </is>
+      </c>
+      <c r="F88">
+        <v>1388</v>
+      </c>
+      <c r="G88">
+        <v>2642</v>
+      </c>
+      <c r="H88">
+        <v>350</v>
+      </c>
+      <c r="I88">
+        <v>583.649722</v>
+      </c>
+      <c r="J88">
+        <v>0.599675</v>
+      </c>
+      <c r="K88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>HAQER</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>MSN</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>conserved_chromatin_accessibility</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>GABA+</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>normalApproximate</t>
+        </is>
+      </c>
+      <c r="F89">
+        <v>892</v>
+      </c>
+      <c r="G89">
+        <v>3021</v>
+      </c>
+      <c r="H89">
+        <v>562</v>
+      </c>
+      <c r="I89">
+        <v>617.406419</v>
+      </c>
+      <c r="J89">
+        <v>0.910259</v>
+      </c>
+      <c r="K89">
+        <v>0.9999751</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>HAR</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>MSN</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>conserved_chromatin_accessibility</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>GABA+</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>normalApproximate</t>
+        </is>
+      </c>
+      <c r="F90">
+        <v>2645</v>
+      </c>
+      <c r="G90">
+        <v>3021</v>
+      </c>
+      <c r="H90">
+        <v>1945</v>
+      </c>
+      <c r="I90">
+        <v>1829.105794</v>
+      </c>
+      <c r="J90">
+        <v>1.063361</v>
+      </c>
+      <c r="K90">
+        <v>5.917129E-07</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>RAND</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>MSN</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>conserved_chromatin_accessibility</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>GABA+</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>normalApproximate</t>
+        </is>
+      </c>
+      <c r="F91">
+        <v>1388</v>
+      </c>
+      <c r="G91">
+        <v>3021</v>
+      </c>
+      <c r="H91">
+        <v>694</v>
+      </c>
+      <c r="I91">
+        <v>960.77788</v>
+      </c>
+      <c r="J91">
+        <v>0.7223309999999999</v>
+      </c>
+      <c r="K91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>HAQER</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>NP</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>conserved_chromatin_accessibility</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>vGlut+</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>normalApproximate</t>
+        </is>
+      </c>
+      <c r="F92">
+        <v>892</v>
+      </c>
+      <c r="G92">
+        <v>3380</v>
+      </c>
+      <c r="H92">
+        <v>468</v>
+      </c>
+      <c r="I92">
+        <v>507.389915</v>
+      </c>
+      <c r="J92">
+        <v>0.922368</v>
+      </c>
+      <c r="K92">
+        <v>0.996506</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>HAR</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>NP</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>conserved_chromatin_accessibility</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>vGlut+</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>normalApproximate</t>
+        </is>
+      </c>
+      <c r="F93">
+        <v>2645</v>
+      </c>
+      <c r="G93">
+        <v>3380</v>
+      </c>
+      <c r="H93">
+        <v>1388</v>
+      </c>
+      <c r="I93">
+        <v>1502.681582</v>
+      </c>
+      <c r="J93">
+        <v>0.923682</v>
+      </c>
+      <c r="K93">
+        <v>0.9999969</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>RAND</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>NP</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>conserved_chromatin_accessibility</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>vGlut+</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>normalApproximate</t>
+        </is>
+      </c>
+      <c r="F94">
+        <v>1388</v>
+      </c>
+      <c r="G94">
+        <v>3380</v>
+      </c>
+      <c r="H94">
+        <v>528</v>
+      </c>
+      <c r="I94">
+        <v>789.592689</v>
+      </c>
+      <c r="J94">
+        <v>0.668699</v>
+      </c>
+      <c r="K94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>HAQER</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>OGC</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>conserved_chromatin_accessibility</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Non-neuronal</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>normalApproximate</t>
+        </is>
+      </c>
+      <c r="F95">
+        <v>892</v>
+      </c>
+      <c r="G95">
+        <v>3078</v>
+      </c>
+      <c r="H95">
+        <v>464</v>
+      </c>
+      <c r="I95">
+        <v>488.752263</v>
+      </c>
+      <c r="J95">
+        <v>0.949356</v>
+      </c>
+      <c r="K95">
+        <v>0.9553557</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>HAR</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>OGC</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>conserved_chromatin_accessibility</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Non-neuronal</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>normalApproximate</t>
+        </is>
+      </c>
+      <c r="F96">
+        <v>2645</v>
+      </c>
+      <c r="G96">
+        <v>3078</v>
+      </c>
+      <c r="H96">
+        <v>1350</v>
+      </c>
+      <c r="I96">
+        <v>1447.58417</v>
+      </c>
+      <c r="J96">
+        <v>0.932588</v>
+      </c>
+      <c r="K96">
+        <v>0.9999363999999999</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>RAND</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>OGC</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>conserved_chromatin_accessibility</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Non-neuronal</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>normalApproximate</t>
+        </is>
+      </c>
+      <c r="F97">
+        <v>1388</v>
+      </c>
+      <c r="G97">
+        <v>3078</v>
+      </c>
+      <c r="H97">
+        <v>464</v>
+      </c>
+      <c r="I97">
+        <v>760.585271</v>
+      </c>
+      <c r="J97">
+        <v>0.610057</v>
+      </c>
+      <c r="K97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>HAQER</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>OPC</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>conserved_chromatin_accessibility</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Non-neuronal</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>normalApproximate</t>
+        </is>
+      </c>
+      <c r="F98">
+        <v>892</v>
+      </c>
+      <c r="G98">
+        <v>3115</v>
+      </c>
+      <c r="H98">
+        <v>514</v>
+      </c>
+      <c r="I98">
+        <v>545.1845980000001</v>
+      </c>
+      <c r="J98">
+        <v>0.9428</v>
+      </c>
+      <c r="K98">
+        <v>0.985248</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>HAR</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>OPC</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>conserved_chromatin_accessibility</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>Non-neuronal</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>normalApproximate</t>
+        </is>
+      </c>
+      <c r="F99">
+        <v>2645</v>
+      </c>
+      <c r="G99">
+        <v>3115</v>
+      </c>
+      <c r="H99">
+        <v>1616</v>
+      </c>
+      <c r="I99">
+        <v>1614.902784</v>
+      </c>
+      <c r="J99">
+        <v>1.000679</v>
+      </c>
+      <c r="K99">
+        <v>0.4904999</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>RAND</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>OPC</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>conserved_chromatin_accessibility</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>Non-neuronal</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>normalApproximate</t>
+        </is>
+      </c>
+      <c r="F100">
+        <v>1388</v>
+      </c>
+      <c r="G100">
+        <v>3115</v>
+      </c>
+      <c r="H100">
+        <v>578</v>
+      </c>
+      <c r="I100">
+        <v>848.398344</v>
+      </c>
+      <c r="J100">
+        <v>0.681284</v>
+      </c>
+      <c r="K100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>HAQER</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>PVALB</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>conserved_chromatin_accessibility</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>GABA+</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>normalApproximate</t>
+        </is>
+      </c>
+      <c r="F101">
+        <v>892</v>
+      </c>
+      <c r="G101">
+        <v>2700</v>
+      </c>
+      <c r="H101">
+        <v>598</v>
+      </c>
+      <c r="I101">
+        <v>634.095588</v>
+      </c>
+      <c r="J101">
+        <v>0.943075</v>
+      </c>
+      <c r="K101">
+        <v>0.9965679</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>HAR</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>PVALB</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>conserved_chromatin_accessibility</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>GABA+</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>normalApproximate</t>
+        </is>
+      </c>
+      <c r="F102">
+        <v>2645</v>
+      </c>
+      <c r="G102">
+        <v>2700</v>
+      </c>
+      <c r="H102">
+        <v>1964</v>
+      </c>
+      <c r="I102">
+        <v>1878.771704</v>
+      </c>
+      <c r="J102">
+        <v>1.045364</v>
+      </c>
+      <c r="K102">
+        <v>0.0001405589</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>RAND</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>PVALB</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>conserved_chromatin_accessibility</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>GABA+</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>normalApproximate</t>
+        </is>
+      </c>
+      <c r="F103">
+        <v>1388</v>
+      </c>
+      <c r="G103">
+        <v>2700</v>
+      </c>
+      <c r="H103">
+        <v>709</v>
+      </c>
+      <c r="I103">
+        <v>986.74066</v>
+      </c>
+      <c r="J103">
+        <v>0.718527</v>
+      </c>
+      <c r="K103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>HAQER</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>SST</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>conserved_chromatin_accessibility</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>GABA+</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>normalApproximate</t>
+        </is>
+      </c>
+      <c r="F104">
+        <v>892</v>
+      </c>
+      <c r="G104">
+        <v>2853</v>
+      </c>
+      <c r="H104">
+        <v>611</v>
+      </c>
+      <c r="I104">
+        <v>640.167542</v>
+      </c>
+      <c r="J104">
+        <v>0.954438</v>
+      </c>
+      <c r="K104">
+        <v>0.9863536000000001</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>HAR</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>SST</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>conserved_chromatin_accessibility</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>GABA+</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>normalApproximate</t>
+        </is>
+      </c>
+      <c r="F105">
+        <v>2645</v>
+      </c>
+      <c r="G105">
+        <v>2853</v>
+      </c>
+      <c r="H105">
+        <v>1999</v>
+      </c>
+      <c r="I105">
+        <v>1896.693958</v>
+      </c>
+      <c r="J105">
+        <v>1.053939</v>
+      </c>
+      <c r="K105">
+        <v>5.532705E-06</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>RAND</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>SST</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>conserved_chromatin_accessibility</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>GABA+</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>normalApproximate</t>
+        </is>
+      </c>
+      <c r="F106">
+        <v>1388</v>
+      </c>
+      <c r="G106">
+        <v>2853</v>
+      </c>
+      <c r="H106">
+        <v>731</v>
+      </c>
+      <c r="I106">
+        <v>996.1923379999999</v>
+      </c>
+      <c r="J106">
+        <v>0.7337939999999999</v>
+      </c>
+      <c r="K106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>HAQER</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>VIP</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>conserved_chromatin_accessibility</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>GABA+</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>normalApproximate</t>
+        </is>
+      </c>
+      <c r="F107">
+        <v>892</v>
+      </c>
+      <c r="G107">
+        <v>2944</v>
+      </c>
+      <c r="H107">
+        <v>601</v>
+      </c>
+      <c r="I107">
+        <v>629.4872800000001</v>
+      </c>
+      <c r="J107">
+        <v>0.954745</v>
+      </c>
+      <c r="K107">
+        <v>0.9834223</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>HAR</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>VIP</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>conserved_chromatin_accessibility</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>GABA+</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>normalApproximate</t>
+        </is>
+      </c>
+      <c r="F108">
+        <v>2645</v>
+      </c>
+      <c r="G108">
+        <v>2944</v>
+      </c>
+      <c r="H108">
+        <v>2011</v>
+      </c>
+      <c r="I108">
+        <v>1864.977223</v>
+      </c>
+      <c r="J108">
+        <v>1.078297</v>
+      </c>
+      <c r="K108">
+        <v>2.7238E-10</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>RAND</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>VIP</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>conserved_chromatin_accessibility</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>GABA+</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>normalApproximate</t>
+        </is>
+      </c>
+      <c r="F109">
+        <v>1388</v>
+      </c>
+      <c r="G109">
+        <v>2944</v>
+      </c>
+      <c r="H109">
+        <v>698</v>
+      </c>
+      <c r="I109">
+        <v>979.574428</v>
+      </c>
+      <c r="J109">
+        <v>0.712554</v>
+      </c>
+      <c r="K109">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L113"/>

--- a/manuscript/supplemental_materials/supplemental_tables.xlsx
+++ b/manuscript/supplemental_materials/supplemental_tables.xlsx
@@ -701,25 +701,25 @@
         <v>3244</v>
       </c>
       <c r="F2">
-        <v>0.00546494749256711</v>
+        <v>0.06323030329795815</v>
       </c>
       <c r="G2">
-        <v>0.01175158957474063</v>
+        <v>0.07037971275265195</v>
       </c>
       <c r="H2">
-        <v>1.016537817973561</v>
+        <v>1.156045626882784</v>
       </c>
       <c r="I2">
         <v>10</v>
       </c>
       <c r="J2">
-        <v>0.748957982554907</v>
+        <v>0.9087589758219556</v>
       </c>
       <c r="K2">
-        <v>1.02892606304589</v>
+        <v>1.227149368580355</v>
       </c>
       <c r="L2">
-        <v>1.039608363493345</v>
+        <v>1.182282332282601</v>
       </c>
     </row>
     <row r="3">
@@ -739,31 +739,31 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.0369801736728461</v>
+        <v>0.03698017367284619</v>
       </c>
       <c r="E3">
         <v>503</v>
       </c>
       <c r="F3">
-        <v>-0.05013492940643528</v>
+        <v>1.624880647527778E-17</v>
       </c>
       <c r="G3">
-        <v>-0.00762990432429362</v>
+        <v>0.0483383377361283</v>
       </c>
       <c r="H3">
-        <v>0.8793232674687781</v>
+        <v>1</v>
       </c>
       <c r="I3">
         <v>10</v>
       </c>
       <c r="J3">
-        <v>0.748957982554907</v>
+        <v>0.9087589758219556</v>
       </c>
       <c r="K3">
-        <v>1.02892606304589</v>
+        <v>1.227149368580355</v>
       </c>
       <c r="L3">
-        <v>1.039608363493345</v>
+        <v>1.182282332282601</v>
       </c>
     </row>
     <row r="4">
@@ -783,31 +783,31 @@
         </is>
       </c>
       <c r="D4">
-        <v>0.2457027970847805</v>
+        <v>0.2457027970847806</v>
       </c>
       <c r="E4">
         <v>503</v>
       </c>
       <c r="F4">
-        <v>-0.05013492940643528</v>
+        <v>1.624880647527778E-17</v>
       </c>
       <c r="G4">
-        <v>-0.00762990432429362</v>
+        <v>0.0483383377361283</v>
       </c>
       <c r="H4">
-        <v>0.8793232674687781</v>
+        <v>1</v>
       </c>
       <c r="I4">
         <v>3244</v>
       </c>
       <c r="J4">
-        <v>0.00546494749256711</v>
+        <v>0.06323030329795815</v>
       </c>
       <c r="K4">
-        <v>0.01175158957474063</v>
+        <v>0.07037971275265195</v>
       </c>
       <c r="L4">
-        <v>1.016537817973561</v>
+        <v>1.156045626882784</v>
       </c>
     </row>
     <row r="5">
@@ -833,25 +833,25 @@
         <v>3244</v>
       </c>
       <c r="F5">
-        <v>-0.0964599779891071</v>
+        <v>-0.8454869057313058</v>
       </c>
       <c r="G5">
-        <v>-0.09369933640081184</v>
+        <v>-0.8424127351576889</v>
       </c>
       <c r="H5">
-        <v>0.9709224710163</v>
+        <v>1.081191163067631</v>
       </c>
       <c r="I5">
         <v>10</v>
       </c>
       <c r="J5">
-        <v>-2.047086226253547</v>
+        <v>-3.017647840335809</v>
       </c>
       <c r="K5">
-        <v>-2.044003401359202</v>
+        <v>-3.014214895757277</v>
       </c>
       <c r="L5">
-        <v>0.3286127296044282</v>
+        <v>0.3659336249041001</v>
       </c>
     </row>
     <row r="6">
@@ -871,31 +871,31 @@
         </is>
       </c>
       <c r="D6">
-        <v>3.02126384923739E-18</v>
+        <v>3.021263849237435E-18</v>
       </c>
       <c r="E6">
         <v>503</v>
       </c>
       <c r="F6">
-        <v>0.6627972780500968</v>
+        <v>3.148475688524556E-16</v>
       </c>
       <c r="G6">
-        <v>0.6262948691605261</v>
+        <v>-0.04064802607851307</v>
       </c>
       <c r="H6">
-        <v>0.8980118448818346</v>
+        <v>1</v>
       </c>
       <c r="I6">
         <v>10</v>
       </c>
       <c r="J6">
-        <v>-2.047086226253547</v>
+        <v>-3.017647840335809</v>
       </c>
       <c r="K6">
-        <v>-2.044003401359202</v>
+        <v>-3.014214895757277</v>
       </c>
       <c r="L6">
-        <v>0.3286127296044282</v>
+        <v>0.3659336249041001</v>
       </c>
     </row>
     <row r="7">
@@ -921,25 +921,25 @@
         <v>503</v>
       </c>
       <c r="F7">
-        <v>0.6627972780500968</v>
+        <v>3.148475688524556E-16</v>
       </c>
       <c r="G7">
-        <v>0.6262948691605261</v>
+        <v>-0.04064802607851307</v>
       </c>
       <c r="H7">
-        <v>0.8980118448818346</v>
+        <v>1</v>
       </c>
       <c r="I7">
         <v>3244</v>
       </c>
       <c r="J7">
-        <v>-0.0964599779891071</v>
+        <v>-0.8454869057313058</v>
       </c>
       <c r="K7">
-        <v>-0.09369933640081184</v>
+        <v>-0.8424127351576889</v>
       </c>
       <c r="L7">
-        <v>0.9709224710163</v>
+        <v>1.081191163067631</v>
       </c>
     </row>
     <row r="8">
@@ -965,25 +965,25 @@
         <v>3244</v>
       </c>
       <c r="F8">
-        <v>0.0112112621925764</v>
+        <v>0.0956191308383743</v>
       </c>
       <c r="G8">
-        <v>0.0292898185554143</v>
+        <v>0.1172182842945411</v>
       </c>
       <c r="H8">
-        <v>1.023016012647069</v>
+        <v>1.222236964158308</v>
       </c>
       <c r="I8">
         <v>10</v>
       </c>
       <c r="J8">
-        <v>-0.175174897999425</v>
+        <v>-0.1270636539645138</v>
       </c>
       <c r="K8">
-        <v>-0.08840190136216469</v>
+        <v>-0.02339258462668434</v>
       </c>
       <c r="L8">
-        <v>0.8953567439167825</v>
+        <v>1.069717477531852</v>
       </c>
     </row>
     <row r="9">
@@ -1009,25 +1009,25 @@
         <v>503</v>
       </c>
       <c r="F9">
-        <v>-0.06882223771913304</v>
+        <v>7.939075796703894E-17</v>
       </c>
       <c r="G9">
-        <v>-0.02830432748905981</v>
+        <v>0.04840832106381549</v>
       </c>
       <c r="H9">
-        <v>0.8370030056745725</v>
+        <v>1</v>
       </c>
       <c r="I9">
         <v>10</v>
       </c>
       <c r="J9">
-        <v>-0.175174897999425</v>
+        <v>-0.1270636539645138</v>
       </c>
       <c r="K9">
-        <v>-0.08840190136216469</v>
+        <v>-0.02339258462668434</v>
       </c>
       <c r="L9">
-        <v>0.8953567439167825</v>
+        <v>1.069717477531852</v>
       </c>
     </row>
     <row r="10">
@@ -1047,31 +1047,31 @@
         </is>
       </c>
       <c r="D10">
-        <v>0.284776849455003</v>
+        <v>0.2847768494550035</v>
       </c>
       <c r="E10">
         <v>503</v>
       </c>
       <c r="F10">
-        <v>-0.06882223771913304</v>
+        <v>7.939075796703894E-17</v>
       </c>
       <c r="G10">
-        <v>-0.02830432748905981</v>
+        <v>0.04840832106381549</v>
       </c>
       <c r="H10">
-        <v>0.8370030056745725</v>
+        <v>1</v>
       </c>
       <c r="I10">
         <v>3244</v>
       </c>
       <c r="J10">
-        <v>0.0112112621925764</v>
+        <v>0.0956191308383743</v>
       </c>
       <c r="K10">
-        <v>0.0292898185554143</v>
+        <v>0.1172182842945411</v>
       </c>
       <c r="L10">
-        <v>1.023016012647069</v>
+        <v>1.222236964158308</v>
       </c>
     </row>
   </sheetData>
@@ -6599,7 +6599,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6688,54 +6688,87 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>log10(brain_mass_g)</t>
+          <t>vocal_learner_binary</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>HAQER_sequence_similarity_scaled</t>
+          <t>HAR_sequence_similarity_scaled</t>
         </is>
       </c>
       <c r="C3">
-        <v>0.4249453628485422</v>
+        <v>-0.1540054806338727</v>
       </c>
       <c r="D3">
-        <v>0.1522033550779373</v>
+        <v>0.3558521948819901</v>
       </c>
       <c r="E3">
-        <v>2.791957921235997</v>
+        <v>-0.4327793472931786</v>
       </c>
       <c r="F3">
-        <v>0.00614504692212833</v>
+        <v>0.6651750786189072</v>
       </c>
       <c r="G3">
-        <v>116</v>
+        <v>170</v>
+      </c>
+      <c r="H3">
+        <v>49</v>
+      </c>
+      <c r="I3">
+        <v>121</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>log10(brain_mass_g)</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>HAQER_sequence_similarity_scaled</t>
+        </is>
+      </c>
+      <c r="C4">
+        <v>0.4249453628485422</v>
+      </c>
+      <c r="D4">
+        <v>0.1522033550779373</v>
+      </c>
+      <c r="E4">
+        <v>2.791957921235997</v>
+      </c>
+      <c r="F4">
+        <v>0.00614504692212833</v>
+      </c>
+      <c r="G4">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
           <t>birth_weight_to_adult_weight_ratio</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B5" t="inlineStr">
         <is>
           <t>HAQER_sequence_similarity_scaled</t>
         </is>
       </c>
-      <c r="C4">
+      <c r="C5">
         <v>0.4420266527009095</v>
       </c>
-      <c r="D4">
+      <c r="D5">
         <v>0.1327971703179547</v>
       </c>
-      <c r="E4">
+      <c r="E5">
         <v>3.32858487603742</v>
       </c>
-      <c r="F4">
+      <c r="F5">
         <v>0.00117891670261702</v>
       </c>
-      <c r="G4">
+      <c r="G5">
         <v>115</v>
       </c>
     </row>

--- a/manuscript/supplemental_materials/supplemental_tables.xlsx
+++ b/manuscript/supplemental_materials/supplemental_tables.xlsx
@@ -563,7 +563,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Results from hominin-gained TFBS analysis in relation to EpiSLI core language (F1)</t>
+          <t>Results from hominin-gained TFBS analysis in relation to EpiSLI F1</t>
         </is>
       </c>
     </row>
